--- a/QRQAC/csv_files/QRQAC_planning_depths.xlsx
+++ b/QRQAC/csv_files/QRQAC_planning_depths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arachne0/PycharmProjects/get_api/QRQAC/csv_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D8E351-6064-7A40-95BE-E9F12535FEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE15CE63-ACAE-DD41-BB76-A7ED9570F5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="23460" windowWidth="27300" windowHeight="16380" xr2:uid="{8B7E887A-31AE-DC46-8943-84B1AB21CEFA}"/>
+    <workbookView xWindow="2940" yWindow="1880" windowWidth="27300" windowHeight="16380" xr2:uid="{8B7E887A-31AE-DC46-8943-84B1AB21CEFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8DCF46-89D0-A843-A4FF-5E0B1C784D1D}">
   <dimension ref="A1:Y401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C139" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G148" sqref="G148"/>
+    <sheetView tabSelected="1" topLeftCell="F369" zoomScale="58" workbookViewId="0">
+      <selection activeCell="J386" sqref="J386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -856,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="Y4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -933,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="Y5">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="Y7">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1164,7 +1164,7 @@
         <v>6</v>
       </c>
       <c r="Y8">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1241,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="Y9">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1318,7 +1318,7 @@
         <v>5</v>
       </c>
       <c r="Y10">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1395,7 +1395,7 @@
         <v>6</v>
       </c>
       <c r="Y11">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1472,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="Y12">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1549,7 +1549,7 @@
         <v>6</v>
       </c>
       <c r="Y13">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1626,7 +1626,7 @@
         <v>6</v>
       </c>
       <c r="Y14">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="Y15">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1857,7 +1857,7 @@
         <v>6</v>
       </c>
       <c r="Y17">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1934,7 +1934,7 @@
         <v>5</v>
       </c>
       <c r="Y18">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2005,13 +2005,13 @@
         <v>3</v>
       </c>
       <c r="W19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X19">
         <v>6</v>
       </c>
       <c r="Y19">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2082,13 +2082,13 @@
         <v>3</v>
       </c>
       <c r="W20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X20">
         <v>6</v>
       </c>
       <c r="Y20">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2159,13 +2159,13 @@
         <v>3</v>
       </c>
       <c r="W21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X21">
         <v>5</v>
       </c>
       <c r="Y21">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2194,7 +2194,7 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J22">
         <v>7</v>
@@ -2313,13 +2313,13 @@
         <v>2</v>
       </c>
       <c r="W23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X23">
         <v>5</v>
       </c>
       <c r="Y23">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2348,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J24">
         <v>7</v>
@@ -2390,7 +2390,7 @@
         <v>3</v>
       </c>
       <c r="W24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X24">
         <v>6</v>
@@ -2467,7 +2467,7 @@
         <v>3</v>
       </c>
       <c r="W25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X25">
         <v>7</v>
@@ -2544,7 +2544,7 @@
         <v>4</v>
       </c>
       <c r="W26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X26">
         <v>6</v>
@@ -2579,7 +2579,7 @@
         <v>2</v>
       </c>
       <c r="I27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J27">
         <v>4</v>
@@ -2621,7 +2621,7 @@
         <v>4</v>
       </c>
       <c r="W27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X27">
         <v>6</v>
@@ -2656,7 +2656,7 @@
         <v>2</v>
       </c>
       <c r="I28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J28">
         <v>5</v>
@@ -2701,7 +2701,7 @@
         <v>4</v>
       </c>
       <c r="X28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y28">
         <v>9</v>
@@ -2733,7 +2733,7 @@
         <v>2</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J29">
         <v>4</v>
@@ -2775,10 +2775,10 @@
         <v>3</v>
       </c>
       <c r="W29">
-        <v>4</v>
-      </c>
-      <c r="X29" s="1">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="X29">
+        <v>5</v>
       </c>
       <c r="Y29">
         <v>8</v>
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J30">
         <v>6</v>
@@ -2852,10 +2852,10 @@
         <v>3</v>
       </c>
       <c r="W30">
-        <v>6</v>
-      </c>
-      <c r="X30" s="1">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="X30">
+        <v>6</v>
       </c>
       <c r="Y30">
         <v>9</v>
@@ -2887,7 +2887,7 @@
         <v>3</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31">
         <v>7</v>
@@ -2929,9 +2929,9 @@
         <v>4</v>
       </c>
       <c r="W31">
-        <v>3</v>
-      </c>
-      <c r="X31" s="1">
+        <v>2</v>
+      </c>
+      <c r="X31">
         <v>5</v>
       </c>
       <c r="Y31">
@@ -2964,7 +2964,7 @@
         <v>3</v>
       </c>
       <c r="I32">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -3008,8 +3008,8 @@
       <c r="W32">
         <v>3</v>
       </c>
-      <c r="X32" s="1">
-        <v>5</v>
+      <c r="X32">
+        <v>6</v>
       </c>
       <c r="Y32">
         <v>8</v>
@@ -3041,7 +3041,7 @@
         <v>2</v>
       </c>
       <c r="I33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J33">
         <v>3</v>
@@ -3083,10 +3083,10 @@
         <v>3</v>
       </c>
       <c r="W33">
-        <v>6</v>
-      </c>
-      <c r="X33" s="1">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="X33">
+        <v>6</v>
       </c>
       <c r="Y33">
         <v>12</v>
@@ -3118,7 +3118,7 @@
         <v>3</v>
       </c>
       <c r="I34">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -3130,7 +3130,7 @@
         <v>3</v>
       </c>
       <c r="M34" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N34">
         <v>4</v>
@@ -3162,7 +3162,7 @@
       <c r="W34">
         <v>4</v>
       </c>
-      <c r="X34" s="1">
+      <c r="X34">
         <v>5</v>
       </c>
       <c r="Y34">
@@ -3207,7 +3207,7 @@
         <v>4</v>
       </c>
       <c r="M35" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N35">
         <v>4</v>
@@ -3237,7 +3237,7 @@
         <v>2</v>
       </c>
       <c r="W35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X35">
         <v>6</v>
@@ -3272,7 +3272,7 @@
         <v>2</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J36">
         <v>3</v>
@@ -3284,7 +3284,7 @@
         <v>4</v>
       </c>
       <c r="M36" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N36">
         <v>5</v>
@@ -3314,10 +3314,10 @@
         <v>2</v>
       </c>
       <c r="W36">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X36">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y36">
         <v>9</v>
@@ -3349,7 +3349,7 @@
         <v>2</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J37">
         <v>3</v>
@@ -3361,7 +3361,7 @@
         <v>4</v>
       </c>
       <c r="M37" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37">
         <v>4</v>
@@ -3391,7 +3391,7 @@
         <v>2</v>
       </c>
       <c r="W37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X37">
         <v>5</v>
@@ -3426,7 +3426,7 @@
         <v>3</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J38">
         <v>3</v>
@@ -3468,10 +3468,10 @@
         <v>2</v>
       </c>
       <c r="W38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X38">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y38">
         <v>9</v>
@@ -3503,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J39">
         <v>3</v>
@@ -3527,7 +3527,7 @@
         <v>5</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R39">
         <v>9</v>
@@ -3545,10 +3545,10 @@
         <v>2</v>
       </c>
       <c r="W39">
-        <v>6</v>
-      </c>
-      <c r="X39" s="1">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="X39">
+        <v>6</v>
       </c>
       <c r="Y39">
         <v>9</v>
@@ -3580,7 +3580,7 @@
         <v>2</v>
       </c>
       <c r="I40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J40">
         <v>4</v>
@@ -3592,7 +3592,7 @@
         <v>4</v>
       </c>
       <c r="M40" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N40">
         <v>5</v>
@@ -3624,8 +3624,8 @@
       <c r="W40">
         <v>4</v>
       </c>
-      <c r="X40" s="1">
-        <v>4</v>
+      <c r="X40">
+        <v>5</v>
       </c>
       <c r="Y40">
         <v>9</v>
@@ -3681,7 +3681,7 @@
         <v>5</v>
       </c>
       <c r="Q41">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R41">
         <v>9</v>
@@ -3699,9 +3699,9 @@
         <v>3</v>
       </c>
       <c r="W41">
-        <v>4</v>
-      </c>
-      <c r="X41" s="1">
+        <v>3</v>
+      </c>
+      <c r="X41">
         <v>5</v>
       </c>
       <c r="Y41">
@@ -3734,7 +3734,7 @@
         <v>3</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J42">
         <v>4</v>
@@ -3758,7 +3758,7 @@
         <v>4</v>
       </c>
       <c r="Q42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R42">
         <v>8</v>
@@ -3778,8 +3778,8 @@
       <c r="W42">
         <v>3</v>
       </c>
-      <c r="X42" s="1">
-        <v>4</v>
+      <c r="X42">
+        <v>5</v>
       </c>
       <c r="Y42">
         <v>9</v>
@@ -3811,7 +3811,7 @@
         <v>2</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43">
         <v>4</v>
@@ -3835,7 +3835,7 @@
         <v>6</v>
       </c>
       <c r="Q43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R43">
         <v>9</v>
@@ -3853,10 +3853,10 @@
         <v>2</v>
       </c>
       <c r="W43">
-        <v>5</v>
-      </c>
-      <c r="X43" s="1">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="X43">
+        <v>6</v>
       </c>
       <c r="Y43">
         <v>9</v>
@@ -3888,7 +3888,7 @@
         <v>2</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J44">
         <v>4</v>
@@ -3900,7 +3900,7 @@
         <v>3</v>
       </c>
       <c r="M44" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44">
         <v>5</v>
@@ -3912,7 +3912,7 @@
         <v>5</v>
       </c>
       <c r="Q44">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R44">
         <v>8</v>
@@ -3930,7 +3930,7 @@
         <v>2</v>
       </c>
       <c r="W44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X44">
         <v>4</v>
@@ -3977,7 +3977,7 @@
         <v>3</v>
       </c>
       <c r="M45" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N45">
         <v>4</v>
@@ -3989,7 +3989,7 @@
         <v>6</v>
       </c>
       <c r="Q45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R45">
         <v>8</v>
@@ -4007,7 +4007,7 @@
         <v>2</v>
       </c>
       <c r="W45">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X45">
         <v>3</v>
@@ -4066,7 +4066,7 @@
         <v>5</v>
       </c>
       <c r="Q46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R46">
         <v>7</v>
@@ -4084,7 +4084,7 @@
         <v>3</v>
       </c>
       <c r="W46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X46">
         <v>3</v>
@@ -4131,7 +4131,7 @@
         <v>4</v>
       </c>
       <c r="M47" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N47">
         <v>5</v>
@@ -4143,7 +4143,7 @@
         <v>5</v>
       </c>
       <c r="Q47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R47">
         <v>8</v>
@@ -4161,7 +4161,7 @@
         <v>2</v>
       </c>
       <c r="W47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X47">
         <v>3</v>
@@ -4208,7 +4208,7 @@
         <v>4</v>
       </c>
       <c r="M48" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48">
         <v>4</v>
@@ -4220,7 +4220,7 @@
         <v>6</v>
       </c>
       <c r="Q48">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R48">
         <v>8</v>
@@ -4238,7 +4238,7 @@
         <v>2</v>
       </c>
       <c r="W48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X48">
         <v>3</v>
@@ -4285,7 +4285,7 @@
         <v>3</v>
       </c>
       <c r="M49" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N49">
         <v>5</v>
@@ -4297,7 +4297,7 @@
         <v>5</v>
       </c>
       <c r="Q49">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R49">
         <v>8</v>
@@ -4315,7 +4315,7 @@
         <v>2</v>
       </c>
       <c r="W49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X49">
         <v>3</v>
@@ -4350,7 +4350,7 @@
         <v>3</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50">
         <v>5</v>
@@ -4374,7 +4374,7 @@
         <v>5</v>
       </c>
       <c r="Q50">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R50">
         <v>8</v>
@@ -4392,7 +4392,7 @@
         <v>2</v>
       </c>
       <c r="W50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X50">
         <v>4</v>
@@ -4439,7 +4439,7 @@
         <v>3</v>
       </c>
       <c r="M51" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N51">
         <v>5</v>
@@ -4451,7 +4451,7 @@
         <v>5</v>
       </c>
       <c r="Q51">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R51">
         <v>8</v>
@@ -4469,7 +4469,7 @@
         <v>4</v>
       </c>
       <c r="W51">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X51">
         <v>4</v>
@@ -4528,7 +4528,7 @@
         <v>5</v>
       </c>
       <c r="Q52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R52">
         <v>8</v>
@@ -4546,7 +4546,7 @@
         <v>3</v>
       </c>
       <c r="W52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X52">
         <v>3</v>
@@ -4581,7 +4581,7 @@
         <v>2</v>
       </c>
       <c r="I53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J53">
         <v>4</v>
@@ -4593,7 +4593,7 @@
         <v>3</v>
       </c>
       <c r="M53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N53">
         <v>5</v>
@@ -4605,7 +4605,7 @@
         <v>5</v>
       </c>
       <c r="Q53">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R53">
         <v>8</v>
@@ -4623,7 +4623,7 @@
         <v>3</v>
       </c>
       <c r="W53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X53">
         <v>6</v>
@@ -4670,7 +4670,7 @@
         <v>4</v>
       </c>
       <c r="M54" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N54">
         <v>5</v>
@@ -4700,7 +4700,7 @@
         <v>3</v>
       </c>
       <c r="W54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X54">
         <v>7</v>
@@ -4735,7 +4735,7 @@
         <v>3</v>
       </c>
       <c r="I55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J55">
         <v>4</v>
@@ -4747,7 +4747,7 @@
         <v>4</v>
       </c>
       <c r="M55" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55">
         <v>4</v>
@@ -4777,7 +4777,7 @@
         <v>3</v>
       </c>
       <c r="W55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X55">
         <v>6</v>
@@ -4812,7 +4812,7 @@
         <v>3</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J56">
         <v>4</v>
@@ -4854,7 +4854,7 @@
         <v>4</v>
       </c>
       <c r="W56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X56">
         <v>6</v>
@@ -4901,7 +4901,7 @@
         <v>3</v>
       </c>
       <c r="M57" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N57">
         <v>4</v>
@@ -4931,13 +4931,13 @@
         <v>4</v>
       </c>
       <c r="W57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X57">
         <v>6</v>
       </c>
       <c r="Y57">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -4966,7 +4966,7 @@
         <v>3</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J58">
         <v>4</v>
@@ -4978,7 +4978,7 @@
         <v>3</v>
       </c>
       <c r="M58" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N58">
         <v>4</v>
@@ -5008,13 +5008,13 @@
         <v>3</v>
       </c>
       <c r="W58">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X58">
         <v>6</v>
       </c>
       <c r="Y58">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -5043,7 +5043,7 @@
         <v>3</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -5085,13 +5085,13 @@
         <v>3</v>
       </c>
       <c r="W59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X59">
         <v>7</v>
       </c>
       <c r="Y59">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:25">
@@ -5120,7 +5120,7 @@
         <v>2</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J60">
         <v>4</v>
@@ -5132,7 +5132,7 @@
         <v>4</v>
       </c>
       <c r="M60" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N60">
         <v>5</v>
@@ -5144,7 +5144,7 @@
         <v>5</v>
       </c>
       <c r="Q60">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R60">
         <v>8</v>
@@ -5162,13 +5162,13 @@
         <v>4</v>
       </c>
       <c r="W60">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X60">
         <v>6</v>
       </c>
       <c r="Y60">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -5197,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J61">
         <v>4</v>
@@ -5209,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="M61" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N61">
         <v>5</v>
@@ -5245,7 +5245,7 @@
         <v>6</v>
       </c>
       <c r="Y61">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -5286,7 +5286,7 @@
         <v>3</v>
       </c>
       <c r="M62" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N62">
         <v>5</v>
@@ -5316,13 +5316,13 @@
         <v>4</v>
       </c>
       <c r="W62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X62">
         <v>6</v>
       </c>
       <c r="Y62">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -5351,7 +5351,7 @@
         <v>2</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J63">
         <v>4</v>
@@ -5393,13 +5393,13 @@
         <v>3</v>
       </c>
       <c r="W63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X63">
         <v>6</v>
       </c>
       <c r="Y63">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:25">
@@ -5452,7 +5452,7 @@
         <v>5</v>
       </c>
       <c r="Q64">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R64">
         <v>8</v>
@@ -5476,7 +5476,7 @@
         <v>6</v>
       </c>
       <c r="Y64">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -5517,7 +5517,7 @@
         <v>6</v>
       </c>
       <c r="M65" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N65">
         <v>5</v>
@@ -5529,7 +5529,7 @@
         <v>5</v>
       </c>
       <c r="Q65">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R65">
         <v>9</v>
@@ -5547,13 +5547,13 @@
         <v>4</v>
       </c>
       <c r="W65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X65">
         <v>7</v>
       </c>
       <c r="Y65">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -5582,7 +5582,7 @@
         <v>3</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J66">
         <v>4</v>
@@ -5594,7 +5594,7 @@
         <v>6</v>
       </c>
       <c r="M66" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N66">
         <v>4</v>
@@ -5606,7 +5606,7 @@
         <v>4</v>
       </c>
       <c r="Q66">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R66">
         <v>8</v>
@@ -5624,13 +5624,13 @@
         <v>5</v>
       </c>
       <c r="W66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X66">
         <v>5</v>
       </c>
       <c r="Y66">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -5659,7 +5659,7 @@
         <v>2</v>
       </c>
       <c r="I67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J67">
         <v>4</v>
@@ -5701,7 +5701,7 @@
         <v>3</v>
       </c>
       <c r="W67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X67">
         <v>4</v>
@@ -5778,13 +5778,13 @@
         <v>3</v>
       </c>
       <c r="W68">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="X68">
         <v>4</v>
       </c>
       <c r="Y68">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:25">
@@ -5825,7 +5825,7 @@
         <v>4</v>
       </c>
       <c r="M69" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N69">
         <v>5</v>
@@ -5855,13 +5855,13 @@
         <v>3</v>
       </c>
       <c r="W69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X69">
         <v>4</v>
       </c>
       <c r="Y69">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -5902,7 +5902,7 @@
         <v>5</v>
       </c>
       <c r="M70" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N70">
         <v>6</v>
@@ -5932,13 +5932,13 @@
         <v>3</v>
       </c>
       <c r="W70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X70">
         <v>5</v>
       </c>
       <c r="Y70">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -6009,13 +6009,13 @@
         <v>3</v>
       </c>
       <c r="W71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X71">
         <v>4</v>
       </c>
       <c r="Y71">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -6086,13 +6086,13 @@
         <v>3</v>
       </c>
       <c r="W72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X72">
         <v>5</v>
       </c>
       <c r="Y72">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:25">
@@ -6133,7 +6133,7 @@
         <v>5</v>
       </c>
       <c r="M73" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N73">
         <v>4</v>
@@ -6163,13 +6163,13 @@
         <v>3</v>
       </c>
       <c r="W73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X73">
         <v>4</v>
       </c>
       <c r="Y73">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:25">
@@ -6198,7 +6198,7 @@
         <v>2</v>
       </c>
       <c r="I74">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J74">
         <v>3</v>
@@ -6222,7 +6222,7 @@
         <v>5</v>
       </c>
       <c r="Q74">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R74">
         <v>8</v>
@@ -6240,13 +6240,13 @@
         <v>3</v>
       </c>
       <c r="W74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X74">
         <v>4</v>
       </c>
       <c r="Y74">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:25">
@@ -6317,13 +6317,13 @@
         <v>2</v>
       </c>
       <c r="W75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X75">
         <v>4</v>
       </c>
       <c r="Y75">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -6376,7 +6376,7 @@
         <v>7</v>
       </c>
       <c r="Q76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R76">
         <v>9</v>
@@ -6394,13 +6394,13 @@
         <v>3</v>
       </c>
       <c r="W76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X76">
         <v>6</v>
       </c>
       <c r="Y76">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:25">
@@ -6453,7 +6453,7 @@
         <v>4</v>
       </c>
       <c r="Q77">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R77">
         <v>8</v>
@@ -6471,13 +6471,13 @@
         <v>3</v>
       </c>
       <c r="W77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X77">
         <v>5</v>
       </c>
       <c r="Y77">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -6554,7 +6554,7 @@
         <v>4</v>
       </c>
       <c r="Y78">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -6607,7 +6607,7 @@
         <v>4</v>
       </c>
       <c r="Q79">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R79">
         <v>8</v>
@@ -6631,7 +6631,7 @@
         <v>6</v>
       </c>
       <c r="Y79">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:25">
@@ -6702,7 +6702,7 @@
         <v>3</v>
       </c>
       <c r="W80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X80">
         <v>4</v>
@@ -6761,7 +6761,7 @@
         <v>6</v>
       </c>
       <c r="Q81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R81">
         <v>8</v>
@@ -6779,7 +6779,7 @@
         <v>2</v>
       </c>
       <c r="W81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X81">
         <v>4</v>
@@ -6856,13 +6856,13 @@
         <v>3</v>
       </c>
       <c r="W82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X82">
         <v>5</v>
       </c>
       <c r="Y82">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -6891,7 +6891,7 @@
         <v>2</v>
       </c>
       <c r="I83">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J83">
         <v>4</v>
@@ -6915,7 +6915,7 @@
         <v>5</v>
       </c>
       <c r="Q83">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R83">
         <v>8</v>
@@ -6933,13 +6933,13 @@
         <v>2</v>
       </c>
       <c r="W83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X83">
         <v>4</v>
       </c>
       <c r="Y83">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:25">
@@ -6968,7 +6968,7 @@
         <v>2</v>
       </c>
       <c r="I84">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J84">
         <v>4</v>
@@ -7010,13 +7010,13 @@
         <v>3</v>
       </c>
       <c r="W84">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X84">
         <v>5</v>
       </c>
       <c r="Y84">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:25">
@@ -7084,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W85">
         <v>3</v>
@@ -7093,7 +7093,7 @@
         <v>6</v>
       </c>
       <c r="Y85">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -7146,7 +7146,7 @@
         <v>5</v>
       </c>
       <c r="Q86">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R86">
         <v>8</v>
@@ -7161,16 +7161,16 @@
         <v>2</v>
       </c>
       <c r="V86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X86">
         <v>5</v>
       </c>
       <c r="Y86">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:25">
@@ -7238,7 +7238,7 @@
         <v>2</v>
       </c>
       <c r="V87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W87">
         <v>3</v>
@@ -7247,7 +7247,7 @@
         <v>5</v>
       </c>
       <c r="Y87">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:25">
@@ -7300,7 +7300,7 @@
         <v>5</v>
       </c>
       <c r="Q88">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R88">
         <v>9</v>
@@ -7315,7 +7315,7 @@
         <v>2</v>
       </c>
       <c r="V88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W88">
         <v>4</v>
@@ -7324,7 +7324,7 @@
         <v>6</v>
       </c>
       <c r="Y88">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:25">
@@ -7395,13 +7395,13 @@
         <v>3</v>
       </c>
       <c r="W89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X89">
         <v>5</v>
       </c>
       <c r="Y89">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:25">
@@ -7454,7 +7454,7 @@
         <v>5</v>
       </c>
       <c r="Q90">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R90">
         <v>9</v>
@@ -7469,16 +7469,16 @@
         <v>2</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W90">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X90">
         <v>6</v>
       </c>
       <c r="Y90">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:25">
@@ -7507,7 +7507,7 @@
         <v>2</v>
       </c>
       <c r="I91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J91">
         <v>4</v>
@@ -7549,13 +7549,13 @@
         <v>3</v>
       </c>
       <c r="W91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X91">
         <v>6</v>
       </c>
       <c r="Y91">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:25">
@@ -7584,7 +7584,7 @@
         <v>2</v>
       </c>
       <c r="I92">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J92">
         <v>5</v>
@@ -7608,7 +7608,7 @@
         <v>5</v>
       </c>
       <c r="Q92">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R92">
         <v>8</v>
@@ -7623,16 +7623,16 @@
         <v>2</v>
       </c>
       <c r="V92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X92">
         <v>5</v>
       </c>
       <c r="Y92">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:25">
@@ -7661,7 +7661,7 @@
         <v>4</v>
       </c>
       <c r="I93">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J93">
         <v>5</v>
@@ -7700,16 +7700,16 @@
         <v>2</v>
       </c>
       <c r="V93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X93">
         <v>6</v>
       </c>
       <c r="Y93">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:25">
@@ -7777,7 +7777,7 @@
         <v>2</v>
       </c>
       <c r="V94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W94">
         <v>3</v>
@@ -7815,7 +7815,7 @@
         <v>4</v>
       </c>
       <c r="I95">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J95">
         <v>5</v>
@@ -7854,10 +7854,10 @@
         <v>1</v>
       </c>
       <c r="V95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W95">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X95">
         <v>4</v>
@@ -7931,7 +7931,7 @@
         <v>1</v>
       </c>
       <c r="V96">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W96">
         <v>3</v>
@@ -7940,7 +7940,7 @@
         <v>5</v>
       </c>
       <c r="Y96">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:25">
@@ -7969,7 +7969,7 @@
         <v>3</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J97">
         <v>4</v>
@@ -8046,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="I98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J98">
         <v>3</v>
@@ -8085,16 +8085,16 @@
         <v>2</v>
       </c>
       <c r="V98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X98">
         <v>4</v>
       </c>
       <c r="Y98">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99" spans="1:25">
@@ -8162,7 +8162,7 @@
         <v>2</v>
       </c>
       <c r="V99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W99">
         <v>4</v>
@@ -8200,7 +8200,7 @@
         <v>2</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J100">
         <v>5</v>
@@ -8239,7 +8239,7 @@
         <v>1</v>
       </c>
       <c r="V100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W100">
         <v>4</v>
@@ -8319,7 +8319,7 @@
         <v>3</v>
       </c>
       <c r="W101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X101">
         <v>5</v>
@@ -8354,7 +8354,7 @@
         <v>4</v>
       </c>
       <c r="I102">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J102">
         <v>4</v>
@@ -8393,10 +8393,10 @@
         <v>2</v>
       </c>
       <c r="V102">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W102">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X102">
         <v>4</v>
@@ -8431,7 +8431,7 @@
         <v>2</v>
       </c>
       <c r="I103">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J103">
         <v>4</v>
@@ -8470,10 +8470,10 @@
         <v>1</v>
       </c>
       <c r="V103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X103">
         <v>4</v>
@@ -8547,10 +8547,10 @@
         <v>2</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W104">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X104">
         <v>6</v>
@@ -8585,7 +8585,7 @@
         <v>3</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J105">
         <v>5</v>
@@ -8627,7 +8627,7 @@
         <v>3</v>
       </c>
       <c r="W105">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X105">
         <v>7</v>
@@ -8701,10 +8701,10 @@
         <v>1</v>
       </c>
       <c r="V106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W106">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X106">
         <v>6</v>
@@ -8739,7 +8739,7 @@
         <v>2</v>
       </c>
       <c r="I107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J107">
         <v>4</v>
@@ -8816,7 +8816,7 @@
         <v>4</v>
       </c>
       <c r="I108">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J108">
         <v>4</v>
@@ -8855,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="V108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W108">
         <v>4</v>
@@ -8893,7 +8893,7 @@
         <v>3</v>
       </c>
       <c r="I109">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J109">
         <v>3</v>
@@ -8932,10 +8932,10 @@
         <v>1</v>
       </c>
       <c r="V109">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W109">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X109">
         <v>6</v>
@@ -8970,7 +8970,7 @@
         <v>2</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J110">
         <v>5</v>
@@ -9009,16 +9009,16 @@
         <v>2</v>
       </c>
       <c r="V110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W110">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X110">
         <v>7</v>
       </c>
       <c r="Y110">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:25">
@@ -9086,16 +9086,16 @@
         <v>2</v>
       </c>
       <c r="V111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X111">
         <v>6</v>
       </c>
       <c r="Y111">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="1:25">
@@ -9166,13 +9166,13 @@
         <v>2</v>
       </c>
       <c r="W112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X112">
         <v>6</v>
       </c>
       <c r="Y112">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:25">
@@ -9201,7 +9201,7 @@
         <v>1</v>
       </c>
       <c r="I113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -9240,16 +9240,16 @@
         <v>2</v>
       </c>
       <c r="V113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X113">
         <v>6</v>
       </c>
       <c r="Y113">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:25">
@@ -9278,7 +9278,7 @@
         <v>3</v>
       </c>
       <c r="I114">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J114">
         <v>4</v>
@@ -9320,13 +9320,13 @@
         <v>2</v>
       </c>
       <c r="W114">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X114">
         <v>6</v>
       </c>
       <c r="Y114">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:25">
@@ -9355,7 +9355,7 @@
         <v>3</v>
       </c>
       <c r="I115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J115">
         <v>5</v>
@@ -9397,13 +9397,13 @@
         <v>3</v>
       </c>
       <c r="W115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X115">
         <v>6</v>
       </c>
       <c r="Y115">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:25">
@@ -9432,7 +9432,7 @@
         <v>2</v>
       </c>
       <c r="I116">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J116">
         <v>5</v>
@@ -9474,7 +9474,7 @@
         <v>2</v>
       </c>
       <c r="W116">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X116">
         <v>7</v>
@@ -9509,7 +9509,7 @@
         <v>3</v>
       </c>
       <c r="I117">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J117">
         <v>4</v>
@@ -9557,7 +9557,7 @@
         <v>5</v>
       </c>
       <c r="Y117">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:25">
@@ -9628,13 +9628,13 @@
         <v>3</v>
       </c>
       <c r="W118">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X118">
         <v>4</v>
       </c>
       <c r="Y118">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:25">
@@ -9663,7 +9663,7 @@
         <v>2</v>
       </c>
       <c r="I119">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J119">
         <v>4</v>
@@ -9705,13 +9705,13 @@
         <v>2</v>
       </c>
       <c r="W119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X119">
         <v>4</v>
       </c>
       <c r="Y119">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:25">
@@ -9782,13 +9782,13 @@
         <v>4</v>
       </c>
       <c r="W120">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X120">
         <v>4</v>
       </c>
       <c r="Y120">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:25">
@@ -9817,7 +9817,7 @@
         <v>2</v>
       </c>
       <c r="I121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J121">
         <v>4</v>
@@ -9859,13 +9859,13 @@
         <v>2</v>
       </c>
       <c r="W121">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X121">
         <v>5</v>
       </c>
       <c r="Y121">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:25">
@@ -9894,7 +9894,7 @@
         <v>1</v>
       </c>
       <c r="I122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J122">
         <v>4</v>
@@ -9942,7 +9942,7 @@
         <v>4</v>
       </c>
       <c r="Y122">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:25">
@@ -9971,7 +9971,7 @@
         <v>2</v>
       </c>
       <c r="I123">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J123">
         <v>4</v>
@@ -10013,7 +10013,7 @@
         <v>2</v>
       </c>
       <c r="W123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X123">
         <v>4</v>
@@ -10090,13 +10090,13 @@
         <v>2</v>
       </c>
       <c r="W124">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X124">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y124">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:25">
@@ -10167,10 +10167,10 @@
         <v>2</v>
       </c>
       <c r="W125">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X125">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y125">
         <v>8</v>
@@ -10244,13 +10244,13 @@
         <v>2</v>
       </c>
       <c r="W126">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X126">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y126">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:25">
@@ -10321,13 +10321,13 @@
         <v>3</v>
       </c>
       <c r="W127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X127">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y127">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:25">
@@ -10398,10 +10398,10 @@
         <v>2</v>
       </c>
       <c r="W128">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X128">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y128">
         <v>8</v>
@@ -10475,10 +10475,10 @@
         <v>3</v>
       </c>
       <c r="W129">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X129">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y129">
         <v>8</v>
@@ -10555,7 +10555,7 @@
         <v>3</v>
       </c>
       <c r="X130">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y130">
         <v>8</v>
@@ -10629,10 +10629,10 @@
         <v>3</v>
       </c>
       <c r="W131">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X131">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y131">
         <v>8</v>
@@ -10706,10 +10706,10 @@
         <v>2</v>
       </c>
       <c r="W132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X132">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y132">
         <v>8</v>
@@ -10786,7 +10786,7 @@
         <v>4</v>
       </c>
       <c r="X133">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y133">
         <v>7</v>
@@ -10860,7 +10860,7 @@
         <v>2</v>
       </c>
       <c r="W134">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X134">
         <v>5</v>
@@ -10937,10 +10937,10 @@
         <v>2</v>
       </c>
       <c r="W135">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X135">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y135">
         <v>7</v>
@@ -11014,10 +11014,10 @@
         <v>3</v>
       </c>
       <c r="W136">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X136">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y136">
         <v>8</v>
@@ -11091,7 +11091,7 @@
         <v>2</v>
       </c>
       <c r="W137">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X137">
         <v>5</v>
@@ -11168,10 +11168,10 @@
         <v>2</v>
       </c>
       <c r="W138">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X138">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y138">
         <v>10</v>
@@ -11245,7 +11245,7 @@
         <v>2</v>
       </c>
       <c r="W139">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X139">
         <v>5</v>
@@ -11325,7 +11325,7 @@
         <v>5</v>
       </c>
       <c r="X140">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Y140">
         <v>10</v>
@@ -11399,7 +11399,7 @@
         <v>3</v>
       </c>
       <c r="W141">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X141">
         <v>4</v>
@@ -11553,7 +11553,7 @@
         <v>3</v>
       </c>
       <c r="W143">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X143">
         <v>5</v>
@@ -11630,7 +11630,7 @@
         <v>3</v>
       </c>
       <c r="W144">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X144">
         <v>5</v>
@@ -11707,7 +11707,7 @@
         <v>2</v>
       </c>
       <c r="W145">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X145">
         <v>5</v>
@@ -11861,7 +11861,7 @@
         <v>2</v>
       </c>
       <c r="W147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X147">
         <v>5</v>
@@ -11973,7 +11973,7 @@
         <v>4</v>
       </c>
       <c r="I149">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J149">
         <v>6</v>
@@ -12050,7 +12050,7 @@
         <v>2</v>
       </c>
       <c r="I150">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J150">
         <v>6</v>
@@ -12092,7 +12092,7 @@
         <v>2</v>
       </c>
       <c r="W150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X150" s="1">
         <v>4</v>
@@ -12169,7 +12169,7 @@
         <v>2</v>
       </c>
       <c r="W151">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X151" s="1">
         <v>4</v>
@@ -12323,7 +12323,7 @@
         <v>3</v>
       </c>
       <c r="W153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X153" s="1">
         <v>3</v>
@@ -12358,7 +12358,7 @@
         <v>1</v>
       </c>
       <c r="I154">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J154">
         <v>6</v>
@@ -12400,10 +12400,10 @@
         <v>2</v>
       </c>
       <c r="W154">
-        <v>5</v>
-      </c>
-      <c r="X154" s="1">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="X154">
+        <v>6</v>
       </c>
       <c r="Y154">
         <v>7</v>
@@ -12435,7 +12435,7 @@
         <v>4</v>
       </c>
       <c r="I155">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J155">
         <v>6</v>
@@ -12477,10 +12477,10 @@
         <v>3</v>
       </c>
       <c r="W155">
-        <v>3</v>
-      </c>
-      <c r="X155" s="1">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="X155">
+        <v>5</v>
       </c>
       <c r="Y155">
         <v>10</v>
@@ -12512,7 +12512,7 @@
         <v>4</v>
       </c>
       <c r="I156">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J156">
         <v>4</v>
@@ -12554,10 +12554,10 @@
         <v>3</v>
       </c>
       <c r="W156">
-        <v>6</v>
-      </c>
-      <c r="X156" s="1">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="X156">
+        <v>5</v>
       </c>
       <c r="Y156">
         <v>9</v>
@@ -12589,7 +12589,7 @@
         <v>3</v>
       </c>
       <c r="I157">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J157">
         <v>4</v>
@@ -12633,8 +12633,8 @@
       <c r="W157">
         <v>4</v>
       </c>
-      <c r="X157" s="1">
-        <v>3</v>
+      <c r="X157">
+        <v>6</v>
       </c>
       <c r="Y157">
         <v>10</v>
@@ -12666,7 +12666,7 @@
         <v>1</v>
       </c>
       <c r="I158">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J158">
         <v>5</v>
@@ -12708,10 +12708,10 @@
         <v>2</v>
       </c>
       <c r="W158">
-        <v>5</v>
-      </c>
-      <c r="X158" s="1">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="X158">
+        <v>5</v>
       </c>
       <c r="Y158">
         <v>7</v>
@@ -12743,7 +12743,7 @@
         <v>3</v>
       </c>
       <c r="I159">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J159">
         <v>7</v>
@@ -12785,10 +12785,10 @@
         <v>2</v>
       </c>
       <c r="W159">
-        <v>4</v>
-      </c>
-      <c r="X159" s="1">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="X159">
+        <v>6</v>
       </c>
       <c r="Y159">
         <v>8</v>
@@ -12820,7 +12820,7 @@
         <v>4</v>
       </c>
       <c r="I160">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J160">
         <v>4</v>
@@ -12862,10 +12862,10 @@
         <v>3</v>
       </c>
       <c r="W160">
-        <v>3</v>
-      </c>
-      <c r="X160" s="1">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="X160">
+        <v>6</v>
       </c>
       <c r="Y160">
         <v>8</v>
@@ -12897,7 +12897,7 @@
         <v>1</v>
       </c>
       <c r="I161">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J161">
         <v>7</v>
@@ -12939,9 +12939,9 @@
         <v>2</v>
       </c>
       <c r="W161">
-        <v>3</v>
-      </c>
-      <c r="X161" s="1">
+        <v>4</v>
+      </c>
+      <c r="X161">
         <v>5</v>
       </c>
       <c r="Y161">
@@ -12974,7 +12974,7 @@
         <v>4</v>
       </c>
       <c r="I162">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J162">
         <v>5</v>
@@ -13016,10 +13016,10 @@
         <v>2</v>
       </c>
       <c r="W162">
-        <v>3</v>
-      </c>
-      <c r="X162" s="1">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="X162">
+        <v>6</v>
       </c>
       <c r="Y162">
         <v>11</v>
@@ -13051,7 +13051,7 @@
         <v>3</v>
       </c>
       <c r="I163">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J163">
         <v>4</v>
@@ -13095,8 +13095,8 @@
       <c r="W163">
         <v>3</v>
       </c>
-      <c r="X163" s="1">
-        <v>3</v>
+      <c r="X163">
+        <v>6</v>
       </c>
       <c r="Y163">
         <v>10</v>
@@ -13170,10 +13170,10 @@
         <v>3</v>
       </c>
       <c r="W164">
-        <v>3</v>
-      </c>
-      <c r="X164" s="1">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="X164">
+        <v>5</v>
       </c>
       <c r="Y164">
         <v>9</v>
@@ -13205,7 +13205,7 @@
         <v>3</v>
       </c>
       <c r="I165">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J165">
         <v>6</v>
@@ -13249,8 +13249,8 @@
       <c r="W165">
         <v>3</v>
       </c>
-      <c r="X165" s="1">
-        <v>5</v>
+      <c r="X165">
+        <v>6</v>
       </c>
       <c r="Y165">
         <v>10</v>
@@ -13294,7 +13294,7 @@
         <v>5</v>
       </c>
       <c r="M166" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N166">
         <v>7</v>
@@ -13324,10 +13324,10 @@
         <v>2</v>
       </c>
       <c r="W166">
-        <v>5</v>
-      </c>
-      <c r="X166" s="1">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="X166">
+        <v>6</v>
       </c>
       <c r="Y166">
         <v>7</v>
@@ -13359,7 +13359,7 @@
         <v>2</v>
       </c>
       <c r="I167">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J167">
         <v>4</v>
@@ -13401,10 +13401,10 @@
         <v>3</v>
       </c>
       <c r="W167">
-        <v>5</v>
-      </c>
-      <c r="X167" s="1">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="X167">
+        <v>5</v>
       </c>
       <c r="Y167">
         <v>8</v>
@@ -13436,7 +13436,7 @@
         <v>3</v>
       </c>
       <c r="I168">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J168">
         <v>4</v>
@@ -13448,7 +13448,7 @@
         <v>6</v>
       </c>
       <c r="M168" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N168">
         <v>4</v>
@@ -13478,9 +13478,9 @@
         <v>2</v>
       </c>
       <c r="W168">
-        <v>5</v>
-      </c>
-      <c r="X168" s="1">
+        <v>4</v>
+      </c>
+      <c r="X168">
         <v>5</v>
       </c>
       <c r="Y168">
@@ -13513,7 +13513,7 @@
         <v>4</v>
       </c>
       <c r="I169">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J169">
         <v>5</v>
@@ -13525,7 +13525,7 @@
         <v>6</v>
       </c>
       <c r="M169" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N169">
         <v>4</v>
@@ -13555,10 +13555,10 @@
         <v>3</v>
       </c>
       <c r="W169">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X169">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y169">
         <v>10</v>
@@ -13590,7 +13590,7 @@
         <v>4</v>
       </c>
       <c r="I170">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J170">
         <v>3</v>
@@ -13602,7 +13602,7 @@
         <v>3</v>
       </c>
       <c r="M170" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N170">
         <v>5</v>
@@ -13632,13 +13632,13 @@
         <v>3</v>
       </c>
       <c r="W170">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X170">
         <v>6</v>
       </c>
       <c r="Y170">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="171" spans="1:25">
@@ -13667,7 +13667,7 @@
         <v>3</v>
       </c>
       <c r="I171">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J171">
         <v>3</v>
@@ -13709,13 +13709,13 @@
         <v>2</v>
       </c>
       <c r="W171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X171">
         <v>5</v>
       </c>
       <c r="Y171">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:25">
@@ -13744,7 +13744,7 @@
         <v>3</v>
       </c>
       <c r="I172">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J172">
         <v>4</v>
@@ -13786,13 +13786,13 @@
         <v>2</v>
       </c>
       <c r="W172">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X172" s="1">
         <v>4</v>
       </c>
       <c r="Y172">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173" spans="1:25">
@@ -13863,13 +13863,13 @@
         <v>3</v>
       </c>
       <c r="W173">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X173" s="1">
         <v>3</v>
       </c>
       <c r="Y173">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="174" spans="1:25">
@@ -13910,7 +13910,7 @@
         <v>6</v>
       </c>
       <c r="M174" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N174">
         <v>4</v>
@@ -13940,10 +13940,10 @@
         <v>2</v>
       </c>
       <c r="W174">
-        <v>5</v>
-      </c>
-      <c r="X174" s="1">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="X174">
+        <v>6</v>
       </c>
       <c r="Y174">
         <v>8</v>
@@ -13975,7 +13975,7 @@
         <v>3</v>
       </c>
       <c r="I175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J175">
         <v>4</v>
@@ -13987,7 +13987,7 @@
         <v>5</v>
       </c>
       <c r="M175" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N175">
         <v>5</v>
@@ -14017,13 +14017,13 @@
         <v>2</v>
       </c>
       <c r="W175">
-        <v>5</v>
-      </c>
-      <c r="X175" s="1">
+        <v>3</v>
+      </c>
+      <c r="X175">
         <v>5</v>
       </c>
       <c r="Y175">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="176" spans="1:25">
@@ -14064,7 +14064,7 @@
         <v>4</v>
       </c>
       <c r="M176" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N176">
         <v>5</v>
@@ -14094,13 +14094,13 @@
         <v>4</v>
       </c>
       <c r="W176">
-        <v>4</v>
-      </c>
-      <c r="X176" s="1">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="X176">
+        <v>5</v>
       </c>
       <c r="Y176">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177" spans="1:25">
@@ -14129,7 +14129,7 @@
         <v>2</v>
       </c>
       <c r="I177">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J177">
         <v>4</v>
@@ -14141,7 +14141,7 @@
         <v>5</v>
       </c>
       <c r="M177" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N177">
         <v>5</v>
@@ -14171,13 +14171,13 @@
         <v>3</v>
       </c>
       <c r="W177">
-        <v>5</v>
-      </c>
-      <c r="X177" s="1">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="X177">
+        <v>6</v>
       </c>
       <c r="Y177">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:25">
@@ -14206,7 +14206,7 @@
         <v>3</v>
       </c>
       <c r="I178">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J178">
         <v>3</v>
@@ -14218,7 +14218,7 @@
         <v>4</v>
       </c>
       <c r="M178" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N178">
         <v>5</v>
@@ -14248,13 +14248,13 @@
         <v>4</v>
       </c>
       <c r="W178">
-        <v>5</v>
-      </c>
-      <c r="X178" s="1">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="X178">
+        <v>5</v>
       </c>
       <c r="Y178">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:25">
@@ -14327,11 +14327,11 @@
       <c r="W179">
         <v>4</v>
       </c>
-      <c r="X179" s="1">
-        <v>3</v>
+      <c r="X179">
+        <v>6</v>
       </c>
       <c r="Y179">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:25">
@@ -14360,7 +14360,7 @@
         <v>1</v>
       </c>
       <c r="I180">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J180">
         <v>3</v>
@@ -14404,11 +14404,11 @@
       <c r="W180">
         <v>4</v>
       </c>
-      <c r="X180" s="1">
-        <v>4</v>
+      <c r="X180">
+        <v>6</v>
       </c>
       <c r="Y180">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:25">
@@ -14437,7 +14437,7 @@
         <v>2</v>
       </c>
       <c r="I181">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J181">
         <v>4</v>
@@ -14449,7 +14449,7 @@
         <v>4</v>
       </c>
       <c r="M181" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N181">
         <v>4</v>
@@ -14479,9 +14479,9 @@
         <v>3</v>
       </c>
       <c r="W181">
-        <v>4</v>
-      </c>
-      <c r="X181" s="1">
+        <v>2</v>
+      </c>
+      <c r="X181">
         <v>5</v>
       </c>
       <c r="Y181">
@@ -14514,7 +14514,7 @@
         <v>3</v>
       </c>
       <c r="I182">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J182">
         <v>4</v>
@@ -14526,7 +14526,7 @@
         <v>4</v>
       </c>
       <c r="M182" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N182">
         <v>6</v>
@@ -14556,10 +14556,10 @@
         <v>2</v>
       </c>
       <c r="W182">
-        <v>4</v>
-      </c>
-      <c r="X182" s="1">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="X182">
+        <v>6</v>
       </c>
       <c r="Y182">
         <v>8</v>
@@ -14591,7 +14591,7 @@
         <v>3</v>
       </c>
       <c r="I183">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J183">
         <v>5</v>
@@ -14603,7 +14603,7 @@
         <v>4</v>
       </c>
       <c r="M183" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N183">
         <v>5</v>
@@ -14633,10 +14633,10 @@
         <v>4</v>
       </c>
       <c r="W183">
-        <v>4</v>
-      </c>
-      <c r="X183" s="1">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="X183">
+        <v>6</v>
       </c>
       <c r="Y183">
         <v>11</v>
@@ -14668,7 +14668,7 @@
         <v>2</v>
       </c>
       <c r="I184">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J184">
         <v>4</v>
@@ -14710,9 +14710,9 @@
         <v>3</v>
       </c>
       <c r="W184">
-        <v>3</v>
-      </c>
-      <c r="X184" s="1">
+        <v>4</v>
+      </c>
+      <c r="X184">
         <v>5</v>
       </c>
       <c r="Y184">
@@ -14745,7 +14745,7 @@
         <v>1</v>
       </c>
       <c r="I185">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J185">
         <v>4</v>
@@ -14757,7 +14757,7 @@
         <v>4</v>
       </c>
       <c r="M185" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N185">
         <v>4</v>
@@ -14787,7 +14787,7 @@
         <v>3</v>
       </c>
       <c r="W185">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X185">
         <v>6</v>
@@ -14822,7 +14822,7 @@
         <v>2</v>
       </c>
       <c r="I186">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J186">
         <v>4</v>
@@ -14834,7 +14834,7 @@
         <v>4</v>
       </c>
       <c r="M186" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N186">
         <v>4</v>
@@ -14864,10 +14864,10 @@
         <v>3</v>
       </c>
       <c r="W186">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X186">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y186">
         <v>8</v>
@@ -14899,7 +14899,7 @@
         <v>4</v>
       </c>
       <c r="I187">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J187">
         <v>4</v>
@@ -14911,7 +14911,7 @@
         <v>5</v>
       </c>
       <c r="M187" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N187">
         <v>4</v>
@@ -14941,10 +14941,10 @@
         <v>2</v>
       </c>
       <c r="W187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X187">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y187">
         <v>9</v>
@@ -14976,7 +14976,7 @@
         <v>3</v>
       </c>
       <c r="I188">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J188">
         <v>4</v>
@@ -14988,7 +14988,7 @@
         <v>5</v>
       </c>
       <c r="M188" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N188">
         <v>4</v>
@@ -15053,7 +15053,7 @@
         <v>3</v>
       </c>
       <c r="I189">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J189">
         <v>3</v>
@@ -15095,7 +15095,7 @@
         <v>2</v>
       </c>
       <c r="W189">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X189">
         <v>5</v>
@@ -15130,7 +15130,7 @@
         <v>4</v>
       </c>
       <c r="I190">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J190">
         <v>5</v>
@@ -15172,10 +15172,10 @@
         <v>3</v>
       </c>
       <c r="W190">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X190">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y190">
         <v>12</v>
@@ -15249,7 +15249,7 @@
         <v>3</v>
       </c>
       <c r="W191">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X191">
         <v>5</v>
@@ -15284,7 +15284,7 @@
         <v>3</v>
       </c>
       <c r="I192">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J192">
         <v>5</v>
@@ -15326,7 +15326,7 @@
         <v>3</v>
       </c>
       <c r="W192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X192">
         <v>6</v>
@@ -15361,7 +15361,7 @@
         <v>3</v>
       </c>
       <c r="I193">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J193">
         <v>2</v>
@@ -15403,7 +15403,7 @@
         <v>3</v>
       </c>
       <c r="W193">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X193" s="1">
         <v>4</v>
@@ -15438,7 +15438,7 @@
         <v>3</v>
       </c>
       <c r="I194">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J194">
         <v>3</v>
@@ -15486,7 +15486,7 @@
         <v>3</v>
       </c>
       <c r="Y194">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195" spans="1:25">
@@ -15557,13 +15557,13 @@
         <v>2</v>
       </c>
       <c r="W195">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X195" s="1">
         <v>4</v>
       </c>
       <c r="Y195">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="196" spans="1:25">
@@ -15640,7 +15640,7 @@
         <v>5</v>
       </c>
       <c r="Y196">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="197" spans="1:25">
@@ -15711,7 +15711,7 @@
         <v>2</v>
       </c>
       <c r="W197">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X197" s="1">
         <v>4</v>
@@ -15788,13 +15788,13 @@
         <v>3</v>
       </c>
       <c r="W198">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X198" s="1">
         <v>5</v>
       </c>
       <c r="Y198">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="199" spans="1:25">
@@ -15865,13 +15865,13 @@
         <v>2</v>
       </c>
       <c r="W199">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X199" s="1">
         <v>4</v>
       </c>
       <c r="Y199">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:25">
@@ -15942,13 +15942,13 @@
         <v>2</v>
       </c>
       <c r="W200">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X200" s="1">
         <v>3</v>
       </c>
       <c r="Y200">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:25">
@@ -16019,13 +16019,13 @@
         <v>3</v>
       </c>
       <c r="W201">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X201" s="1">
         <v>4</v>
       </c>
       <c r="Y201">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202" spans="1:25">
@@ -16054,7 +16054,7 @@
         <v>3</v>
       </c>
       <c r="I202">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J202">
         <v>3</v>
@@ -16096,13 +16096,13 @@
         <v>2</v>
       </c>
       <c r="W202">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X202" s="1">
         <v>5</v>
       </c>
       <c r="Y202">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:25">
@@ -16131,7 +16131,7 @@
         <v>1</v>
       </c>
       <c r="I203">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J203">
         <v>3</v>
@@ -16179,7 +16179,7 @@
         <v>5</v>
       </c>
       <c r="Y203">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:25">
@@ -16208,7 +16208,7 @@
         <v>4</v>
       </c>
       <c r="I204">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J204">
         <v>3</v>
@@ -16250,13 +16250,13 @@
         <v>2</v>
       </c>
       <c r="W204">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X204" s="1">
         <v>3</v>
       </c>
       <c r="Y204">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205" spans="1:25">
@@ -16285,7 +16285,7 @@
         <v>2</v>
       </c>
       <c r="I205">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J205">
         <v>3</v>
@@ -16327,13 +16327,13 @@
         <v>2</v>
       </c>
       <c r="W205">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X205" s="1">
         <v>5</v>
       </c>
       <c r="Y205">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206" spans="1:25">
@@ -16362,7 +16362,7 @@
         <v>1</v>
       </c>
       <c r="I206">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J206">
         <v>4</v>
@@ -16404,7 +16404,7 @@
         <v>2</v>
       </c>
       <c r="W206">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X206">
         <v>6</v>
@@ -16439,7 +16439,7 @@
         <v>2</v>
       </c>
       <c r="I207">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J207">
         <v>4</v>
@@ -16481,7 +16481,7 @@
         <v>2</v>
       </c>
       <c r="W207">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X207">
         <v>4</v>
@@ -16516,7 +16516,7 @@
         <v>4</v>
       </c>
       <c r="I208">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J208">
         <v>5</v>
@@ -16558,7 +16558,7 @@
         <v>3</v>
       </c>
       <c r="W208">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X208">
         <v>5</v>
@@ -16593,7 +16593,7 @@
         <v>2</v>
       </c>
       <c r="I209">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J209">
         <v>4</v>
@@ -16635,7 +16635,7 @@
         <v>3</v>
       </c>
       <c r="W209">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X209">
         <v>4</v>
@@ -16670,7 +16670,7 @@
         <v>3</v>
       </c>
       <c r="I210">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J210">
         <v>4</v>
@@ -16694,7 +16694,7 @@
         <v>5</v>
       </c>
       <c r="Q210">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R210">
         <v>7</v>
@@ -16712,7 +16712,7 @@
         <v>4</v>
       </c>
       <c r="W210">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X210" s="1">
         <v>5</v>
@@ -16771,7 +16771,7 @@
         <v>5</v>
       </c>
       <c r="Q211">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R211">
         <v>8</v>
@@ -16789,7 +16789,7 @@
         <v>2</v>
       </c>
       <c r="W211">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X211" s="1">
         <v>4</v>
@@ -16824,7 +16824,7 @@
         <v>2</v>
       </c>
       <c r="I212">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J212">
         <v>3</v>
@@ -16848,7 +16848,7 @@
         <v>5</v>
       </c>
       <c r="Q212">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R212">
         <v>8</v>
@@ -16901,7 +16901,7 @@
         <v>3</v>
       </c>
       <c r="I213">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J213">
         <v>4</v>
@@ -16925,7 +16925,7 @@
         <v>5</v>
       </c>
       <c r="Q213">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R213">
         <v>8</v>
@@ -17002,7 +17002,7 @@
         <v>5</v>
       </c>
       <c r="Q214">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="R214">
         <v>9</v>
@@ -17020,7 +17020,7 @@
         <v>2</v>
       </c>
       <c r="W214">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X214" s="1">
         <v>3</v>
@@ -17055,7 +17055,7 @@
         <v>2</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J215">
         <v>4</v>
@@ -17097,7 +17097,7 @@
         <v>4</v>
       </c>
       <c r="W215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X215" s="1">
         <v>4</v>
@@ -17156,7 +17156,7 @@
         <v>6</v>
       </c>
       <c r="Q216">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R216">
         <v>8</v>
@@ -17173,8 +17173,8 @@
       <c r="V216">
         <v>2</v>
       </c>
-      <c r="W216" s="1">
-        <v>3</v>
+      <c r="W216">
+        <v>5</v>
       </c>
       <c r="X216" s="1">
         <v>5</v>
@@ -17209,7 +17209,7 @@
         <v>2</v>
       </c>
       <c r="I217">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J217">
         <v>3</v>
@@ -17233,7 +17233,7 @@
         <v>4</v>
       </c>
       <c r="Q217">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R217">
         <v>7</v>
@@ -17250,7 +17250,7 @@
       <c r="V217">
         <v>2</v>
       </c>
-      <c r="W217" s="1">
+      <c r="W217">
         <v>3</v>
       </c>
       <c r="X217" s="1">
@@ -17286,7 +17286,7 @@
         <v>2</v>
       </c>
       <c r="I218">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J218">
         <v>4</v>
@@ -17310,7 +17310,7 @@
         <v>6</v>
       </c>
       <c r="Q218">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R218">
         <v>8</v>
@@ -17327,8 +17327,8 @@
       <c r="V218">
         <v>2</v>
       </c>
-      <c r="W218" s="1">
-        <v>5</v>
+      <c r="W218">
+        <v>4</v>
       </c>
       <c r="X218" s="1">
         <v>3</v>
@@ -17363,7 +17363,7 @@
         <v>2</v>
       </c>
       <c r="I219">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J219">
         <v>4</v>
@@ -17404,8 +17404,8 @@
       <c r="V219">
         <v>5</v>
       </c>
-      <c r="W219" s="1">
-        <v>3</v>
+      <c r="W219">
+        <v>4</v>
       </c>
       <c r="X219" s="1">
         <v>5</v>
@@ -17440,7 +17440,7 @@
         <v>2</v>
       </c>
       <c r="I220">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J220">
         <v>5</v>
@@ -17481,8 +17481,8 @@
       <c r="V220">
         <v>2</v>
       </c>
-      <c r="W220" s="1">
-        <v>3</v>
+      <c r="W220">
+        <v>4</v>
       </c>
       <c r="X220">
         <v>5</v>
@@ -17517,7 +17517,7 @@
         <v>2</v>
       </c>
       <c r="I221">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J221">
         <v>5</v>
@@ -17541,7 +17541,7 @@
         <v>5</v>
       </c>
       <c r="Q221">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R221">
         <v>8</v>
@@ -17558,7 +17558,7 @@
       <c r="V221">
         <v>3</v>
       </c>
-      <c r="W221" s="1">
+      <c r="W221">
         <v>3</v>
       </c>
       <c r="X221">
@@ -17618,7 +17618,7 @@
         <v>5</v>
       </c>
       <c r="Q222">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R222">
         <v>11</v>
@@ -17635,7 +17635,7 @@
       <c r="V222">
         <v>2</v>
       </c>
-      <c r="W222" s="1">
+      <c r="W222">
         <v>3</v>
       </c>
       <c r="X222">
@@ -17671,7 +17671,7 @@
         <v>2</v>
       </c>
       <c r="I223">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J223">
         <v>4</v>
@@ -17695,7 +17695,7 @@
         <v>5</v>
       </c>
       <c r="Q223">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R223">
         <v>7</v>
@@ -17712,8 +17712,8 @@
       <c r="V223">
         <v>2</v>
       </c>
-      <c r="W223" s="1">
-        <v>3</v>
+      <c r="W223">
+        <v>4</v>
       </c>
       <c r="X223">
         <v>6</v>
@@ -17789,7 +17789,7 @@
       <c r="V224">
         <v>2</v>
       </c>
-      <c r="W224" s="1">
+      <c r="W224">
         <v>4</v>
       </c>
       <c r="X224">
@@ -17825,7 +17825,7 @@
         <v>3</v>
       </c>
       <c r="I225">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J225">
         <v>5</v>
@@ -17849,7 +17849,7 @@
         <v>5</v>
       </c>
       <c r="Q225">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R225">
         <v>10</v>
@@ -17866,8 +17866,8 @@
       <c r="V225">
         <v>4</v>
       </c>
-      <c r="W225" s="1">
-        <v>5</v>
+      <c r="W225">
+        <v>4</v>
       </c>
       <c r="X225">
         <v>5</v>
@@ -17902,7 +17902,7 @@
         <v>1</v>
       </c>
       <c r="I226">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J226">
         <v>4</v>
@@ -17926,7 +17926,7 @@
         <v>6</v>
       </c>
       <c r="Q226">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R226">
         <v>8</v>
@@ -17943,7 +17943,7 @@
       <c r="V226">
         <v>4</v>
       </c>
-      <c r="W226" s="1">
+      <c r="W226">
         <v>4</v>
       </c>
       <c r="X226">
@@ -17979,7 +17979,7 @@
         <v>2</v>
       </c>
       <c r="I227">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J227">
         <v>3</v>
@@ -18003,7 +18003,7 @@
         <v>4</v>
       </c>
       <c r="Q227">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R227">
         <v>8</v>
@@ -18021,7 +18021,7 @@
         <v>3</v>
       </c>
       <c r="W227">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X227">
         <v>5</v>
@@ -18056,7 +18056,7 @@
         <v>2</v>
       </c>
       <c r="I228">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J228">
         <v>3</v>
@@ -18068,7 +18068,7 @@
         <v>5</v>
       </c>
       <c r="M228" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N228">
         <v>3</v>
@@ -18080,7 +18080,7 @@
         <v>5</v>
       </c>
       <c r="Q228">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R228">
         <v>10</v>
@@ -18098,7 +18098,7 @@
         <v>4</v>
       </c>
       <c r="W228">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X228">
         <v>6</v>
@@ -18133,7 +18133,7 @@
         <v>1</v>
       </c>
       <c r="I229">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J229">
         <v>3</v>
@@ -18145,7 +18145,7 @@
         <v>5</v>
       </c>
       <c r="M229" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N229">
         <v>4</v>
@@ -18157,7 +18157,7 @@
         <v>6</v>
       </c>
       <c r="Q229">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R229">
         <v>10</v>
@@ -18175,7 +18175,7 @@
         <v>3</v>
       </c>
       <c r="W229">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X229">
         <v>5</v>
@@ -18210,7 +18210,7 @@
         <v>3</v>
       </c>
       <c r="I230">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J230">
         <v>3</v>
@@ -18222,7 +18222,7 @@
         <v>5</v>
       </c>
       <c r="M230" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N230">
         <v>4</v>
@@ -18234,7 +18234,7 @@
         <v>4</v>
       </c>
       <c r="Q230">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R230">
         <v>11</v>
@@ -18252,7 +18252,7 @@
         <v>4</v>
       </c>
       <c r="W230">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X230">
         <v>6</v>
@@ -18287,7 +18287,7 @@
         <v>2</v>
       </c>
       <c r="I231">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J231">
         <v>4</v>
@@ -18311,7 +18311,7 @@
         <v>5</v>
       </c>
       <c r="Q231">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R231">
         <v>10</v>
@@ -18329,7 +18329,7 @@
         <v>2</v>
       </c>
       <c r="W231">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X231">
         <v>5</v>
@@ -18364,7 +18364,7 @@
         <v>3</v>
       </c>
       <c r="I232">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J232">
         <v>5</v>
@@ -18406,7 +18406,7 @@
         <v>2</v>
       </c>
       <c r="W232">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X232">
         <v>5</v>
@@ -18441,7 +18441,7 @@
         <v>2</v>
       </c>
       <c r="I233">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J233">
         <v>5</v>
@@ -18453,7 +18453,7 @@
         <v>5</v>
       </c>
       <c r="M233" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N233">
         <v>5</v>
@@ -18465,7 +18465,7 @@
         <v>5</v>
       </c>
       <c r="Q233">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R233">
         <v>8</v>
@@ -18483,7 +18483,7 @@
         <v>3</v>
       </c>
       <c r="W233">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X233">
         <v>7</v>
@@ -18530,7 +18530,7 @@
         <v>5</v>
       </c>
       <c r="M234" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N234">
         <v>5</v>
@@ -18542,7 +18542,7 @@
         <v>4</v>
       </c>
       <c r="Q234">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R234">
         <v>10</v>
@@ -18560,7 +18560,7 @@
         <v>2</v>
       </c>
       <c r="W234">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X234">
         <v>5</v>
@@ -18595,7 +18595,7 @@
         <v>3</v>
       </c>
       <c r="I235">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J235">
         <v>3</v>
@@ -18607,7 +18607,7 @@
         <v>5</v>
       </c>
       <c r="M235" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N235">
         <v>5</v>
@@ -18619,7 +18619,7 @@
         <v>5</v>
       </c>
       <c r="Q235">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R235">
         <v>10</v>
@@ -18637,7 +18637,7 @@
         <v>3</v>
       </c>
       <c r="W235">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X235">
         <v>5</v>
@@ -18672,7 +18672,7 @@
         <v>2</v>
       </c>
       <c r="I236">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J236">
         <v>7</v>
@@ -18696,7 +18696,7 @@
         <v>4</v>
       </c>
       <c r="Q236">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R236">
         <v>10</v>
@@ -18714,7 +18714,7 @@
         <v>3</v>
       </c>
       <c r="W236">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X236">
         <v>6</v>
@@ -18749,7 +18749,7 @@
         <v>2</v>
       </c>
       <c r="I237">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J237">
         <v>6</v>
@@ -18761,7 +18761,7 @@
         <v>5</v>
       </c>
       <c r="M237" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N237">
         <v>5</v>
@@ -18773,7 +18773,7 @@
         <v>4</v>
       </c>
       <c r="Q237">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R237">
         <v>9</v>
@@ -18791,7 +18791,7 @@
         <v>2</v>
       </c>
       <c r="W237">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X237">
         <v>6</v>
@@ -18838,7 +18838,7 @@
         <v>6</v>
       </c>
       <c r="M238" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N238">
         <v>5</v>
@@ -18850,7 +18850,7 @@
         <v>4</v>
       </c>
       <c r="Q238">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R238">
         <v>9</v>
@@ -18868,7 +18868,7 @@
         <v>2</v>
       </c>
       <c r="W238">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X238">
         <v>6</v>
@@ -18903,7 +18903,7 @@
         <v>2</v>
       </c>
       <c r="I239">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J239">
         <v>3</v>
@@ -18915,7 +18915,7 @@
         <v>4</v>
       </c>
       <c r="M239" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N239">
         <v>5</v>
@@ -18927,7 +18927,7 @@
         <v>6</v>
       </c>
       <c r="Q239">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R239">
         <v>7</v>
@@ -18980,7 +18980,7 @@
         <v>1</v>
       </c>
       <c r="I240">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J240">
         <v>4</v>
@@ -18992,7 +18992,7 @@
         <v>4</v>
       </c>
       <c r="M240" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N240">
         <v>5</v>
@@ -19004,7 +19004,7 @@
         <v>4</v>
       </c>
       <c r="Q240">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R240">
         <v>9</v>
@@ -19022,7 +19022,7 @@
         <v>2</v>
       </c>
       <c r="W240">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X240">
         <v>6</v>
@@ -19057,7 +19057,7 @@
         <v>2</v>
       </c>
       <c r="I241">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J241">
         <v>4</v>
@@ -19069,7 +19069,7 @@
         <v>5</v>
       </c>
       <c r="M241" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N241">
         <v>4</v>
@@ -19099,7 +19099,7 @@
         <v>2</v>
       </c>
       <c r="W241">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X241">
         <v>8</v>
@@ -19134,7 +19134,7 @@
         <v>3</v>
       </c>
       <c r="I242">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J242">
         <v>4</v>
@@ -19146,7 +19146,7 @@
         <v>5</v>
       </c>
       <c r="M242" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N242">
         <v>6</v>
@@ -19176,7 +19176,7 @@
         <v>3</v>
       </c>
       <c r="W242">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X242">
         <v>5</v>
@@ -19235,7 +19235,7 @@
         <v>5</v>
       </c>
       <c r="Q243">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R243">
         <v>9</v>
@@ -19253,7 +19253,7 @@
         <v>2</v>
       </c>
       <c r="W243">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X243">
         <v>6</v>
@@ -19312,7 +19312,7 @@
         <v>4</v>
       </c>
       <c r="Q244">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R244">
         <v>9</v>
@@ -19365,7 +19365,7 @@
         <v>2</v>
       </c>
       <c r="I245">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J245">
         <v>4</v>
@@ -19377,7 +19377,7 @@
         <v>5</v>
       </c>
       <c r="M245" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N245">
         <v>5</v>
@@ -19389,7 +19389,7 @@
         <v>5</v>
       </c>
       <c r="Q245">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R245">
         <v>8</v>
@@ -19454,7 +19454,7 @@
         <v>5</v>
       </c>
       <c r="M246" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N246">
         <v>5</v>
@@ -19466,7 +19466,7 @@
         <v>5</v>
       </c>
       <c r="Q246">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R246">
         <v>8</v>
@@ -19484,7 +19484,7 @@
         <v>4</v>
       </c>
       <c r="W246">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X246">
         <v>6</v>
@@ -19519,7 +19519,7 @@
         <v>2</v>
       </c>
       <c r="I247">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J247">
         <v>4</v>
@@ -19543,7 +19543,7 @@
         <v>4</v>
       </c>
       <c r="Q247">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R247">
         <v>9</v>
@@ -19561,7 +19561,7 @@
         <v>2</v>
       </c>
       <c r="W247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X247">
         <v>5</v>
@@ -19596,7 +19596,7 @@
         <v>2</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J248">
         <v>5</v>
@@ -19620,7 +19620,7 @@
         <v>5</v>
       </c>
       <c r="Q248">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R248">
         <v>7</v>
@@ -19685,7 +19685,7 @@
         <v>3</v>
       </c>
       <c r="M249" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N249">
         <v>5</v>
@@ -19697,7 +19697,7 @@
         <v>5</v>
       </c>
       <c r="Q249">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R249">
         <v>7</v>
@@ -19715,7 +19715,7 @@
         <v>2</v>
       </c>
       <c r="W249">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X249">
         <v>5</v>
@@ -19750,7 +19750,7 @@
         <v>2</v>
       </c>
       <c r="I250">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J250">
         <v>3</v>
@@ -19762,7 +19762,7 @@
         <v>4</v>
       </c>
       <c r="M250" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N250">
         <v>6</v>
@@ -19792,7 +19792,7 @@
         <v>3</v>
       </c>
       <c r="W250">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X250">
         <v>4</v>
@@ -19839,7 +19839,7 @@
         <v>4</v>
       </c>
       <c r="M251" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N251">
         <v>5</v>
@@ -19869,7 +19869,7 @@
         <v>2</v>
       </c>
       <c r="W251">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X251">
         <v>5</v>
@@ -19916,7 +19916,7 @@
         <v>6</v>
       </c>
       <c r="M252" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N252">
         <v>4</v>
@@ -19946,7 +19946,7 @@
         <v>2</v>
       </c>
       <c r="W252">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X252">
         <v>4</v>
@@ -19981,7 +19981,7 @@
         <v>3</v>
       </c>
       <c r="I253">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J253">
         <v>4</v>
@@ -20023,7 +20023,7 @@
         <v>2</v>
       </c>
       <c r="W253">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X253">
         <v>5</v>
@@ -20058,7 +20058,7 @@
         <v>2</v>
       </c>
       <c r="I254">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J254">
         <v>3</v>
@@ -20100,7 +20100,7 @@
         <v>3</v>
       </c>
       <c r="W254">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X254">
         <v>6</v>
@@ -20135,7 +20135,7 @@
         <v>2</v>
       </c>
       <c r="I255">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J255">
         <v>3</v>
@@ -20147,7 +20147,7 @@
         <v>4</v>
       </c>
       <c r="M255" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N255">
         <v>4</v>
@@ -20177,7 +20177,7 @@
         <v>3</v>
       </c>
       <c r="W255">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X255">
         <v>5</v>
@@ -20212,7 +20212,7 @@
         <v>2</v>
       </c>
       <c r="I256">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J256">
         <v>3</v>
@@ -20224,7 +20224,7 @@
         <v>6</v>
       </c>
       <c r="M256" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N256">
         <v>5</v>
@@ -20254,7 +20254,7 @@
         <v>2</v>
       </c>
       <c r="W256">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X256">
         <v>5</v>
@@ -20289,7 +20289,7 @@
         <v>2</v>
       </c>
       <c r="I257">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J257">
         <v>2</v>
@@ -20301,7 +20301,7 @@
         <v>4</v>
       </c>
       <c r="M257" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N257">
         <v>5</v>
@@ -20331,7 +20331,7 @@
         <v>3</v>
       </c>
       <c r="W257">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X257">
         <v>6</v>
@@ -20366,7 +20366,7 @@
         <v>3</v>
       </c>
       <c r="I258">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J258">
         <v>3</v>
@@ -20378,7 +20378,7 @@
         <v>4</v>
       </c>
       <c r="M258" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N258">
         <v>5</v>
@@ -20443,7 +20443,7 @@
         <v>2</v>
       </c>
       <c r="I259">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J259">
         <v>4</v>
@@ -20455,7 +20455,7 @@
         <v>5</v>
       </c>
       <c r="M259" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N259">
         <v>6</v>
@@ -20485,7 +20485,7 @@
         <v>3</v>
       </c>
       <c r="W259">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X259">
         <v>6</v>
@@ -20520,7 +20520,7 @@
         <v>2</v>
       </c>
       <c r="I260">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J260">
         <v>4</v>
@@ -20562,7 +20562,7 @@
         <v>5</v>
       </c>
       <c r="W260">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X260">
         <v>6</v>
@@ -20597,7 +20597,7 @@
         <v>3</v>
       </c>
       <c r="I261">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J261">
         <v>3</v>
@@ -20609,7 +20609,7 @@
         <v>4</v>
       </c>
       <c r="M261" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N261">
         <v>5</v>
@@ -20639,7 +20639,7 @@
         <v>3</v>
       </c>
       <c r="W261">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X261">
         <v>5</v>
@@ -20674,7 +20674,7 @@
         <v>3</v>
       </c>
       <c r="I262">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J262">
         <v>3</v>
@@ -20686,7 +20686,7 @@
         <v>5</v>
       </c>
       <c r="M262" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N262">
         <v>4</v>
@@ -20716,7 +20716,7 @@
         <v>2</v>
       </c>
       <c r="W262">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X262">
         <v>6</v>
@@ -20751,7 +20751,7 @@
         <v>2</v>
       </c>
       <c r="I263">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J263">
         <v>4</v>
@@ -20763,7 +20763,7 @@
         <v>5</v>
       </c>
       <c r="M263" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N263">
         <v>5</v>
@@ -20793,7 +20793,7 @@
         <v>4</v>
       </c>
       <c r="W263">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X263">
         <v>5</v>
@@ -20828,7 +20828,7 @@
         <v>2</v>
       </c>
       <c r="I264">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J264">
         <v>4</v>
@@ -20840,7 +20840,7 @@
         <v>5</v>
       </c>
       <c r="M264" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N264">
         <v>6</v>
@@ -20905,7 +20905,7 @@
         <v>3</v>
       </c>
       <c r="I265">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J265">
         <v>5</v>
@@ -20917,7 +20917,7 @@
         <v>5</v>
       </c>
       <c r="M265" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N265">
         <v>5</v>
@@ -20982,7 +20982,7 @@
         <v>1</v>
       </c>
       <c r="I266">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J266">
         <v>6</v>
@@ -21059,7 +21059,7 @@
         <v>2</v>
       </c>
       <c r="I267">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J267">
         <v>4</v>
@@ -21101,7 +21101,7 @@
         <v>2</v>
       </c>
       <c r="W267">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X267">
         <v>5</v>
@@ -21136,7 +21136,7 @@
         <v>3</v>
       </c>
       <c r="I268">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J268">
         <v>4</v>
@@ -21178,7 +21178,7 @@
         <v>2</v>
       </c>
       <c r="W268">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X268">
         <v>7</v>
@@ -21213,7 +21213,7 @@
         <v>3</v>
       </c>
       <c r="I269">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J269">
         <v>6</v>
@@ -21225,7 +21225,7 @@
         <v>4</v>
       </c>
       <c r="M269" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N269">
         <v>6</v>
@@ -21255,7 +21255,7 @@
         <v>3</v>
       </c>
       <c r="W269">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X269">
         <v>5</v>
@@ -21290,7 +21290,7 @@
         <v>4</v>
       </c>
       <c r="I270">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J270">
         <v>5</v>
@@ -21302,7 +21302,7 @@
         <v>6</v>
       </c>
       <c r="M270" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N270">
         <v>6</v>
@@ -21332,7 +21332,7 @@
         <v>2</v>
       </c>
       <c r="W270">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X270">
         <v>6</v>
@@ -21367,7 +21367,7 @@
         <v>5</v>
       </c>
       <c r="I271">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J271">
         <v>6</v>
@@ -21379,7 +21379,7 @@
         <v>7</v>
       </c>
       <c r="M271" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N271">
         <v>5</v>
@@ -21409,7 +21409,7 @@
         <v>3</v>
       </c>
       <c r="W271">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X271">
         <v>6</v>
@@ -21456,7 +21456,7 @@
         <v>5</v>
       </c>
       <c r="M272" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N272">
         <v>6</v>
@@ -21486,7 +21486,7 @@
         <v>2</v>
       </c>
       <c r="W272">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X272">
         <v>7</v>
@@ -21521,7 +21521,7 @@
         <v>2</v>
       </c>
       <c r="I273">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J273">
         <v>5</v>
@@ -21533,7 +21533,7 @@
         <v>4</v>
       </c>
       <c r="M273" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N273">
         <v>5</v>
@@ -21563,7 +21563,7 @@
         <v>3</v>
       </c>
       <c r="W273">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X273">
         <v>5</v>
@@ -21610,7 +21610,7 @@
         <v>5</v>
       </c>
       <c r="M274" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N274">
         <v>6</v>
@@ -21640,7 +21640,7 @@
         <v>3</v>
       </c>
       <c r="W274">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X274">
         <v>6</v>
@@ -21675,7 +21675,7 @@
         <v>3</v>
       </c>
       <c r="I275">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J275">
         <v>4</v>
@@ -21687,7 +21687,7 @@
         <v>5</v>
       </c>
       <c r="M275" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N275">
         <v>5</v>
@@ -21764,7 +21764,7 @@
         <v>5</v>
       </c>
       <c r="M276" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N276">
         <v>5</v>
@@ -21794,7 +21794,7 @@
         <v>3</v>
       </c>
       <c r="W276">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X276">
         <v>6</v>
@@ -21841,7 +21841,7 @@
         <v>6</v>
       </c>
       <c r="M277" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N277">
         <v>5</v>
@@ -21906,7 +21906,7 @@
         <v>3</v>
       </c>
       <c r="I278">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J278">
         <v>2</v>
@@ -21918,7 +21918,7 @@
         <v>5</v>
       </c>
       <c r="M278" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N278">
         <v>4</v>
@@ -21983,7 +21983,7 @@
         <v>2</v>
       </c>
       <c r="I279">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J279">
         <v>4</v>
@@ -22025,7 +22025,7 @@
         <v>2</v>
       </c>
       <c r="W279">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X279">
         <v>6</v>
@@ -22060,7 +22060,7 @@
         <v>2</v>
       </c>
       <c r="I280">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J280">
         <v>5</v>
@@ -22072,7 +22072,7 @@
         <v>5</v>
       </c>
       <c r="M280" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N280">
         <v>5</v>
@@ -22102,7 +22102,7 @@
         <v>3</v>
       </c>
       <c r="W280">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X280">
         <v>6</v>
@@ -22137,7 +22137,7 @@
         <v>3</v>
       </c>
       <c r="I281">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J281">
         <v>5</v>
@@ -22149,7 +22149,7 @@
         <v>5</v>
       </c>
       <c r="M281" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N281">
         <v>6</v>
@@ -22179,7 +22179,7 @@
         <v>3</v>
       </c>
       <c r="W281">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X281">
         <v>6</v>
@@ -22291,7 +22291,7 @@
         <v>1</v>
       </c>
       <c r="I283">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J283">
         <v>2</v>
@@ -22303,7 +22303,7 @@
         <v>4</v>
       </c>
       <c r="M283" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N283">
         <v>5</v>
@@ -22368,7 +22368,7 @@
         <v>2</v>
       </c>
       <c r="I284">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J284">
         <v>3</v>
@@ -22410,7 +22410,7 @@
         <v>4</v>
       </c>
       <c r="W284">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X284" s="1">
         <v>4</v>
@@ -22445,7 +22445,7 @@
         <v>2</v>
       </c>
       <c r="I285">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J285">
         <v>6</v>
@@ -22457,7 +22457,7 @@
         <v>5</v>
       </c>
       <c r="M285" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N285">
         <v>5</v>
@@ -22487,7 +22487,7 @@
         <v>2</v>
       </c>
       <c r="W285">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X285" s="1">
         <v>3</v>
@@ -22522,7 +22522,7 @@
         <v>1</v>
       </c>
       <c r="I286">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J286">
         <v>6</v>
@@ -22611,7 +22611,7 @@
         <v>6</v>
       </c>
       <c r="M287" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N287">
         <v>4</v>
@@ -22718,7 +22718,7 @@
         <v>2</v>
       </c>
       <c r="W288">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X288" s="1">
         <v>4</v>
@@ -22795,7 +22795,7 @@
         <v>3</v>
       </c>
       <c r="W289">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X289" s="1">
         <v>5</v>
@@ -22829,8 +22829,8 @@
       <c r="H290" s="1">
         <v>3</v>
       </c>
-      <c r="I290">
-        <v>5</v>
+      <c r="I290" s="1">
+        <v>3</v>
       </c>
       <c r="J290">
         <v>4</v>
@@ -22906,7 +22906,7 @@
       <c r="H291" s="1">
         <v>3</v>
       </c>
-      <c r="I291">
+      <c r="I291" s="1">
         <v>4</v>
       </c>
       <c r="J291">
@@ -22919,7 +22919,7 @@
         <v>5</v>
       </c>
       <c r="M291" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N291">
         <v>4</v>
@@ -22949,7 +22949,7 @@
         <v>2</v>
       </c>
       <c r="W291">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X291" s="1">
         <v>3</v>
@@ -22983,8 +22983,8 @@
       <c r="H292" s="1">
         <v>3</v>
       </c>
-      <c r="I292">
-        <v>5</v>
+      <c r="I292" s="1">
+        <v>4</v>
       </c>
       <c r="J292">
         <v>2</v>
@@ -22996,7 +22996,7 @@
         <v>5</v>
       </c>
       <c r="M292" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N292">
         <v>5</v>
@@ -23026,7 +23026,7 @@
         <v>2</v>
       </c>
       <c r="W292">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X292" s="1">
         <v>4</v>
@@ -23060,8 +23060,8 @@
       <c r="H293" s="1">
         <v>3</v>
       </c>
-      <c r="I293">
-        <v>5</v>
+      <c r="I293" s="1">
+        <v>4</v>
       </c>
       <c r="J293">
         <v>3</v>
@@ -23103,7 +23103,7 @@
         <v>3</v>
       </c>
       <c r="W293">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X293" s="1">
         <v>5</v>
@@ -23137,7 +23137,7 @@
       <c r="H294" s="1">
         <v>2</v>
       </c>
-      <c r="I294">
+      <c r="I294" s="1">
         <v>4</v>
       </c>
       <c r="J294">
@@ -23180,7 +23180,7 @@
         <v>2</v>
       </c>
       <c r="W294">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X294" s="1">
         <v>5</v>
@@ -23214,8 +23214,8 @@
       <c r="H295" s="1">
         <v>4</v>
       </c>
-      <c r="I295">
-        <v>3</v>
+      <c r="I295" s="1">
+        <v>2</v>
       </c>
       <c r="J295">
         <v>5</v>
@@ -23227,7 +23227,7 @@
         <v>6</v>
       </c>
       <c r="M295" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N295">
         <v>5</v>
@@ -23257,7 +23257,7 @@
         <v>3</v>
       </c>
       <c r="W295">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X295" s="1">
         <v>3</v>
@@ -23291,8 +23291,8 @@
       <c r="H296" s="1">
         <v>4</v>
       </c>
-      <c r="I296">
-        <v>5</v>
+      <c r="I296" s="1">
+        <v>2</v>
       </c>
       <c r="J296">
         <v>7</v>
@@ -23304,7 +23304,7 @@
         <v>5</v>
       </c>
       <c r="M296" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N296">
         <v>5</v>
@@ -23334,7 +23334,7 @@
         <v>2</v>
       </c>
       <c r="W296">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X296" s="1">
         <v>5</v>
@@ -23368,8 +23368,8 @@
       <c r="H297" s="1">
         <v>2</v>
       </c>
-      <c r="I297">
-        <v>4</v>
+      <c r="I297" s="1">
+        <v>3</v>
       </c>
       <c r="J297">
         <v>4</v>
@@ -23381,7 +23381,7 @@
         <v>4</v>
       </c>
       <c r="M297" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N297">
         <v>5</v>
@@ -23411,7 +23411,7 @@
         <v>2</v>
       </c>
       <c r="W297">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X297">
         <v>6</v>
@@ -23445,7 +23445,7 @@
       <c r="H298" s="1">
         <v>4</v>
       </c>
-      <c r="I298">
+      <c r="I298" s="1">
         <v>4</v>
       </c>
       <c r="J298">
@@ -23488,7 +23488,7 @@
         <v>3</v>
       </c>
       <c r="W298">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X298">
         <v>6</v>
@@ -23522,8 +23522,8 @@
       <c r="H299" s="1">
         <v>3</v>
       </c>
-      <c r="I299">
-        <v>4</v>
+      <c r="I299" s="1">
+        <v>2</v>
       </c>
       <c r="J299">
         <v>6</v>
@@ -23535,7 +23535,7 @@
         <v>5</v>
       </c>
       <c r="M299" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N299">
         <v>5</v>
@@ -23565,7 +23565,7 @@
         <v>2</v>
       </c>
       <c r="W299">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X299">
         <v>6</v>
@@ -23599,8 +23599,8 @@
       <c r="H300" s="1">
         <v>2</v>
       </c>
-      <c r="I300">
-        <v>5</v>
+      <c r="I300" s="1">
+        <v>4</v>
       </c>
       <c r="J300">
         <v>3</v>
@@ -23642,7 +23642,7 @@
         <v>3</v>
       </c>
       <c r="W300">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X300">
         <v>6</v>
@@ -23676,8 +23676,8 @@
       <c r="H301" s="1">
         <v>3</v>
       </c>
-      <c r="I301">
-        <v>4</v>
+      <c r="I301" s="1">
+        <v>2</v>
       </c>
       <c r="J301">
         <v>3</v>
@@ -23689,7 +23689,7 @@
         <v>5</v>
       </c>
       <c r="M301" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N301">
         <v>5</v>
@@ -23719,7 +23719,7 @@
         <v>3</v>
       </c>
       <c r="W301">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X301">
         <v>7</v>
@@ -23753,8 +23753,8 @@
       <c r="H302" s="1">
         <v>1</v>
       </c>
-      <c r="I302">
-        <v>5</v>
+      <c r="I302" s="1">
+        <v>3</v>
       </c>
       <c r="J302">
         <v>3</v>
@@ -23796,7 +23796,7 @@
         <v>2</v>
       </c>
       <c r="W302">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X302">
         <v>6</v>
@@ -23830,8 +23830,8 @@
       <c r="H303" s="1">
         <v>3</v>
       </c>
-      <c r="I303">
-        <v>5</v>
+      <c r="I303" s="1">
+        <v>4</v>
       </c>
       <c r="J303">
         <v>4</v>
@@ -23873,7 +23873,7 @@
         <v>3</v>
       </c>
       <c r="W303">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X303">
         <v>6</v>
@@ -23907,7 +23907,7 @@
       <c r="H304" s="1">
         <v>3</v>
       </c>
-      <c r="I304">
+      <c r="I304" s="1">
         <v>4</v>
       </c>
       <c r="J304">
@@ -23950,7 +23950,7 @@
         <v>3</v>
       </c>
       <c r="W304">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X304">
         <v>6</v>
@@ -23984,7 +23984,7 @@
       <c r="H305" s="1">
         <v>2</v>
       </c>
-      <c r="I305">
+      <c r="I305" s="1">
         <v>3</v>
       </c>
       <c r="J305">
@@ -23997,7 +23997,7 @@
         <v>4</v>
       </c>
       <c r="M305" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N305">
         <v>4</v>
@@ -24027,7 +24027,7 @@
         <v>2</v>
       </c>
       <c r="W305">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X305">
         <v>6</v>
@@ -24061,8 +24061,8 @@
       <c r="H306" s="1">
         <v>2</v>
       </c>
-      <c r="I306">
-        <v>3</v>
+      <c r="I306" s="1">
+        <v>2</v>
       </c>
       <c r="J306">
         <v>4</v>
@@ -24074,7 +24074,7 @@
         <v>4</v>
       </c>
       <c r="M306" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N306">
         <v>6</v>
@@ -24104,7 +24104,7 @@
         <v>3</v>
       </c>
       <c r="W306">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X306">
         <v>6</v>
@@ -24138,8 +24138,8 @@
       <c r="H307" s="1">
         <v>1</v>
       </c>
-      <c r="I307">
-        <v>4</v>
+      <c r="I307" s="1">
+        <v>5</v>
       </c>
       <c r="J307">
         <v>5</v>
@@ -24151,7 +24151,7 @@
         <v>4</v>
       </c>
       <c r="M307" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N307">
         <v>5</v>
@@ -24181,7 +24181,7 @@
         <v>3</v>
       </c>
       <c r="W307">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X307">
         <v>7</v>
@@ -24215,7 +24215,7 @@
       <c r="H308" s="1">
         <v>2</v>
       </c>
-      <c r="I308">
+      <c r="I308" s="1">
         <v>4</v>
       </c>
       <c r="J308">
@@ -24228,7 +24228,7 @@
         <v>4</v>
       </c>
       <c r="M308" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N308">
         <v>5</v>
@@ -24258,7 +24258,7 @@
         <v>2</v>
       </c>
       <c r="W308">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X308" s="1">
         <v>4</v>
@@ -24292,8 +24292,8 @@
       <c r="H309" s="1">
         <v>3</v>
       </c>
-      <c r="I309">
-        <v>4</v>
+      <c r="I309" s="1">
+        <v>5</v>
       </c>
       <c r="J309">
         <v>4</v>
@@ -24305,7 +24305,7 @@
         <v>4</v>
       </c>
       <c r="M309" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N309">
         <v>5</v>
@@ -24369,8 +24369,8 @@
       <c r="H310" s="1">
         <v>4</v>
       </c>
-      <c r="I310">
-        <v>3</v>
+      <c r="I310" s="1">
+        <v>4</v>
       </c>
       <c r="J310">
         <v>4</v>
@@ -24412,7 +24412,7 @@
         <v>2</v>
       </c>
       <c r="W310">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X310" s="1">
         <v>4</v>
@@ -24446,8 +24446,8 @@
       <c r="H311" s="1">
         <v>3</v>
       </c>
-      <c r="I311">
-        <v>5</v>
+      <c r="I311" s="1">
+        <v>3</v>
       </c>
       <c r="J311">
         <v>5</v>
@@ -24489,7 +24489,7 @@
         <v>4</v>
       </c>
       <c r="W311">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X311" s="1">
         <v>5</v>
@@ -24523,7 +24523,7 @@
       <c r="H312" s="1">
         <v>1</v>
       </c>
-      <c r="I312">
+      <c r="I312" s="1">
         <v>3</v>
       </c>
       <c r="J312">
@@ -24566,7 +24566,7 @@
         <v>3</v>
       </c>
       <c r="W312">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X312" s="1">
         <v>4</v>
@@ -24600,8 +24600,8 @@
       <c r="H313" s="1">
         <v>2</v>
       </c>
-      <c r="I313">
-        <v>4</v>
+      <c r="I313" s="1">
+        <v>3</v>
       </c>
       <c r="J313">
         <v>5</v>
@@ -24613,7 +24613,7 @@
         <v>3</v>
       </c>
       <c r="M313" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N313">
         <v>4</v>
@@ -24677,8 +24677,8 @@
       <c r="H314" s="1">
         <v>3</v>
       </c>
-      <c r="I314">
-        <v>3</v>
+      <c r="I314" s="1">
+        <v>4</v>
       </c>
       <c r="J314">
         <v>5</v>
@@ -24690,7 +24690,7 @@
         <v>4</v>
       </c>
       <c r="M314" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N314">
         <v>6</v>
@@ -24720,7 +24720,7 @@
         <v>3</v>
       </c>
       <c r="W314">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X314" s="1">
         <v>4</v>
@@ -24754,8 +24754,8 @@
       <c r="H315" s="1">
         <v>4</v>
       </c>
-      <c r="I315">
-        <v>3</v>
+      <c r="I315" s="1">
+        <v>4</v>
       </c>
       <c r="J315">
         <v>5</v>
@@ -24797,7 +24797,7 @@
         <v>2</v>
       </c>
       <c r="W315">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X315" s="1">
         <v>3</v>
@@ -24831,8 +24831,8 @@
       <c r="H316" s="1">
         <v>1</v>
       </c>
-      <c r="I316">
-        <v>3</v>
+      <c r="I316" s="1">
+        <v>4</v>
       </c>
       <c r="J316">
         <v>6</v>
@@ -24874,7 +24874,7 @@
         <v>2</v>
       </c>
       <c r="W316">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X316" s="1">
         <v>4</v>
@@ -24908,7 +24908,7 @@
       <c r="H317" s="1">
         <v>4</v>
       </c>
-      <c r="I317">
+      <c r="I317" s="1">
         <v>4</v>
       </c>
       <c r="J317">
@@ -24921,7 +24921,7 @@
         <v>4</v>
       </c>
       <c r="M317" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N317">
         <v>5</v>
@@ -24951,7 +24951,7 @@
         <v>2</v>
       </c>
       <c r="W317">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X317" s="1">
         <v>5</v>
@@ -24985,8 +24985,8 @@
       <c r="H318" s="1">
         <v>3</v>
       </c>
-      <c r="I318">
-        <v>3</v>
+      <c r="I318" s="1">
+        <v>2</v>
       </c>
       <c r="J318">
         <v>6</v>
@@ -25028,7 +25028,7 @@
         <v>2</v>
       </c>
       <c r="W318">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X318" s="1">
         <v>5</v>
@@ -25062,8 +25062,8 @@
       <c r="H319" s="1">
         <v>2</v>
       </c>
-      <c r="I319">
-        <v>3</v>
+      <c r="I319" s="1">
+        <v>2</v>
       </c>
       <c r="J319">
         <v>5</v>
@@ -25075,7 +25075,7 @@
         <v>4</v>
       </c>
       <c r="M319" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N319">
         <v>5</v>
@@ -25105,7 +25105,7 @@
         <v>2</v>
       </c>
       <c r="W319">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X319" s="1">
         <v>3</v>
@@ -25139,8 +25139,8 @@
       <c r="H320" s="1">
         <v>2</v>
       </c>
-      <c r="I320">
-        <v>4</v>
+      <c r="I320" s="1">
+        <v>3</v>
       </c>
       <c r="J320">
         <v>5</v>
@@ -25181,8 +25181,8 @@
       <c r="V320">
         <v>2</v>
       </c>
-      <c r="W320" s="1">
-        <v>3</v>
+      <c r="W320">
+        <v>4</v>
       </c>
       <c r="X320" s="1">
         <v>5</v>
@@ -25229,7 +25229,7 @@
         <v>4</v>
       </c>
       <c r="M321" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N321">
         <v>4</v>
@@ -25258,8 +25258,8 @@
       <c r="V321">
         <v>2</v>
       </c>
-      <c r="W321" s="1">
-        <v>3</v>
+      <c r="W321">
+        <v>4</v>
       </c>
       <c r="X321">
         <v>6</v>
@@ -25306,7 +25306,7 @@
         <v>3</v>
       </c>
       <c r="M322" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N322">
         <v>5</v>
@@ -25335,8 +25335,8 @@
       <c r="V322">
         <v>2</v>
       </c>
-      <c r="W322" s="1">
-        <v>5</v>
+      <c r="W322">
+        <v>4</v>
       </c>
       <c r="X322">
         <v>5</v>
@@ -25383,7 +25383,7 @@
         <v>3</v>
       </c>
       <c r="M323" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N323">
         <v>5</v>
@@ -25412,8 +25412,8 @@
       <c r="V323">
         <v>2</v>
       </c>
-      <c r="W323" s="1">
-        <v>3</v>
+      <c r="W323">
+        <v>2</v>
       </c>
       <c r="X323">
         <v>5</v>
@@ -25460,7 +25460,7 @@
         <v>3</v>
       </c>
       <c r="M324" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N324">
         <v>8</v>
@@ -25489,8 +25489,8 @@
       <c r="V324">
         <v>2</v>
       </c>
-      <c r="W324" s="1">
-        <v>3</v>
+      <c r="W324">
+        <v>2</v>
       </c>
       <c r="X324">
         <v>6</v>
@@ -25537,7 +25537,7 @@
         <v>4</v>
       </c>
       <c r="M325" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N325">
         <v>5</v>
@@ -25566,7 +25566,7 @@
       <c r="V325">
         <v>3</v>
       </c>
-      <c r="W325" s="1">
+      <c r="W325">
         <v>3</v>
       </c>
       <c r="X325">
@@ -25614,7 +25614,7 @@
         <v>3</v>
       </c>
       <c r="M326" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N326">
         <v>4</v>
@@ -25643,8 +25643,8 @@
       <c r="V326">
         <v>2</v>
       </c>
-      <c r="W326" s="1">
-        <v>3</v>
+      <c r="W326">
+        <v>4</v>
       </c>
       <c r="X326">
         <v>6</v>
@@ -25691,7 +25691,7 @@
         <v>4</v>
       </c>
       <c r="M327" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N327">
         <v>4</v>
@@ -25720,8 +25720,8 @@
       <c r="V327">
         <v>3</v>
       </c>
-      <c r="W327" s="1">
-        <v>3</v>
+      <c r="W327">
+        <v>2</v>
       </c>
       <c r="X327">
         <v>6</v>
@@ -25797,7 +25797,7 @@
       <c r="V328">
         <v>2</v>
       </c>
-      <c r="W328" s="1">
+      <c r="W328">
         <v>4</v>
       </c>
       <c r="X328">
@@ -25874,8 +25874,8 @@
       <c r="V329">
         <v>2</v>
       </c>
-      <c r="W329" s="1">
-        <v>5</v>
+      <c r="W329">
+        <v>2</v>
       </c>
       <c r="X329">
         <v>6</v>
@@ -25922,7 +25922,7 @@
         <v>4</v>
       </c>
       <c r="M330" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N330">
         <v>5</v>
@@ -25951,8 +25951,8 @@
       <c r="V330">
         <v>2</v>
       </c>
-      <c r="W330" s="1">
-        <v>4</v>
+      <c r="W330">
+        <v>3</v>
       </c>
       <c r="X330">
         <v>6</v>
@@ -26029,7 +26029,7 @@
         <v>2</v>
       </c>
       <c r="W331">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X331">
         <v>5</v>
@@ -26064,7 +26064,7 @@
         <v>2</v>
       </c>
       <c r="I332">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J332">
         <v>4</v>
@@ -26106,7 +26106,7 @@
         <v>3</v>
       </c>
       <c r="W332">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X332">
         <v>5</v>
@@ -26141,7 +26141,7 @@
         <v>3</v>
       </c>
       <c r="I333">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J333">
         <v>4</v>
@@ -26183,7 +26183,7 @@
         <v>5</v>
       </c>
       <c r="W333">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X333">
         <v>6</v>
@@ -26218,7 +26218,7 @@
         <v>2</v>
       </c>
       <c r="I334">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J334">
         <v>3</v>
@@ -26260,7 +26260,7 @@
         <v>2</v>
       </c>
       <c r="W334">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X334">
         <v>5</v>
@@ -26295,7 +26295,7 @@
         <v>2</v>
       </c>
       <c r="I335">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J335">
         <v>4</v>
@@ -26372,7 +26372,7 @@
         <v>3</v>
       </c>
       <c r="I336">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J336">
         <v>3</v>
@@ -26414,7 +26414,7 @@
         <v>5</v>
       </c>
       <c r="W336">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X336">
         <v>5</v>
@@ -26449,7 +26449,7 @@
         <v>2</v>
       </c>
       <c r="I337">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J337">
         <v>3</v>
@@ -26491,7 +26491,7 @@
         <v>2</v>
       </c>
       <c r="W337">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X337">
         <v>5</v>
@@ -26526,7 +26526,7 @@
         <v>3</v>
       </c>
       <c r="I338">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J338">
         <v>3</v>
@@ -26568,7 +26568,7 @@
         <v>3</v>
       </c>
       <c r="W338">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X338">
         <v>5</v>
@@ -26603,7 +26603,7 @@
         <v>3</v>
       </c>
       <c r="I339">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J339">
         <v>3</v>
@@ -26722,7 +26722,7 @@
         <v>2</v>
       </c>
       <c r="W340">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X340">
         <v>5</v>
@@ -26757,7 +26757,7 @@
         <v>3</v>
       </c>
       <c r="I341">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J341">
         <v>3</v>
@@ -26799,7 +26799,7 @@
         <v>3</v>
       </c>
       <c r="W341">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X341">
         <v>5</v>
@@ -26834,7 +26834,7 @@
         <v>3</v>
       </c>
       <c r="I342">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J342">
         <v>5</v>
@@ -26876,7 +26876,7 @@
         <v>4</v>
       </c>
       <c r="W342">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X342">
         <v>5</v>
@@ -26953,7 +26953,7 @@
         <v>3</v>
       </c>
       <c r="W343">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X343">
         <v>5</v>
@@ -27065,7 +27065,7 @@
         <v>1</v>
       </c>
       <c r="I345">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J345">
         <v>3</v>
@@ -27107,7 +27107,7 @@
         <v>2</v>
       </c>
       <c r="W345">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X345">
         <v>6</v>
@@ -27184,7 +27184,7 @@
         <v>2</v>
       </c>
       <c r="W346">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X346">
         <v>6</v>
@@ -27219,7 +27219,7 @@
         <v>2</v>
       </c>
       <c r="I347">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J347">
         <v>3</v>
@@ -27261,7 +27261,7 @@
         <v>2</v>
       </c>
       <c r="W347">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X347">
         <v>6</v>
@@ -27296,7 +27296,7 @@
         <v>1</v>
       </c>
       <c r="I348">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J348">
         <v>6</v>
@@ -27338,7 +27338,7 @@
         <v>3</v>
       </c>
       <c r="W348">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X348">
         <v>5</v>
@@ -27373,7 +27373,7 @@
         <v>3</v>
       </c>
       <c r="I349">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J349">
         <v>6</v>
@@ -27492,7 +27492,7 @@
         <v>2</v>
       </c>
       <c r="W350">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X350">
         <v>6</v>
@@ -27645,8 +27645,8 @@
       <c r="V352">
         <v>3</v>
       </c>
-      <c r="W352" s="1">
-        <v>4</v>
+      <c r="W352">
+        <v>2</v>
       </c>
       <c r="X352">
         <v>6</v>
@@ -27681,7 +27681,7 @@
         <v>3</v>
       </c>
       <c r="I353">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J353">
         <v>4</v>
@@ -27722,8 +27722,8 @@
       <c r="V353">
         <v>4</v>
       </c>
-      <c r="W353" s="1">
-        <v>4</v>
+      <c r="W353">
+        <v>3</v>
       </c>
       <c r="X353">
         <v>5</v>
@@ -27758,7 +27758,7 @@
         <v>3</v>
       </c>
       <c r="I354">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J354">
         <v>4</v>
@@ -27799,8 +27799,8 @@
       <c r="V354">
         <v>5</v>
       </c>
-      <c r="W354" s="1">
-        <v>3</v>
+      <c r="W354">
+        <v>4</v>
       </c>
       <c r="X354">
         <v>5</v>
@@ -27876,7 +27876,7 @@
       <c r="V355">
         <v>2</v>
       </c>
-      <c r="W355" s="1">
+      <c r="W355">
         <v>4</v>
       </c>
       <c r="X355">
@@ -27912,7 +27912,7 @@
         <v>2</v>
       </c>
       <c r="I356">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J356">
         <v>3</v>
@@ -27953,8 +27953,8 @@
       <c r="V356">
         <v>3</v>
       </c>
-      <c r="W356" s="1">
-        <v>5</v>
+      <c r="W356">
+        <v>3</v>
       </c>
       <c r="X356">
         <v>5</v>
@@ -27989,7 +27989,7 @@
         <v>1</v>
       </c>
       <c r="I357">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J357">
         <v>4</v>
@@ -28030,8 +28030,8 @@
       <c r="V357">
         <v>4</v>
       </c>
-      <c r="W357" s="1">
-        <v>4</v>
+      <c r="W357">
+        <v>2</v>
       </c>
       <c r="X357">
         <v>6</v>
@@ -28107,7 +28107,7 @@
       <c r="V358">
         <v>4</v>
       </c>
-      <c r="W358" s="1">
+      <c r="W358">
         <v>5</v>
       </c>
       <c r="X358">
@@ -28143,7 +28143,7 @@
         <v>2</v>
       </c>
       <c r="I359">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J359">
         <v>5</v>
@@ -28184,8 +28184,8 @@
       <c r="V359">
         <v>3</v>
       </c>
-      <c r="W359" s="1">
-        <v>4</v>
+      <c r="W359">
+        <v>3</v>
       </c>
       <c r="X359">
         <v>5</v>
@@ -28220,7 +28220,7 @@
         <v>4</v>
       </c>
       <c r="I360">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J360">
         <v>4</v>
@@ -28261,7 +28261,7 @@
       <c r="V360">
         <v>2</v>
       </c>
-      <c r="W360" s="1">
+      <c r="W360">
         <v>3</v>
       </c>
       <c r="X360">
@@ -28297,7 +28297,7 @@
         <v>3</v>
       </c>
       <c r="I361">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J361">
         <v>5</v>
@@ -28338,8 +28338,8 @@
       <c r="V361">
         <v>3</v>
       </c>
-      <c r="W361" s="1">
-        <v>4</v>
+      <c r="W361">
+        <v>3</v>
       </c>
       <c r="X361">
         <v>6</v>
@@ -28374,7 +28374,7 @@
         <v>3</v>
       </c>
       <c r="I362">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J362">
         <v>2</v>
@@ -28415,8 +28415,8 @@
       <c r="V362">
         <v>2</v>
       </c>
-      <c r="W362" s="1">
-        <v>5</v>
+      <c r="W362">
+        <v>3</v>
       </c>
       <c r="X362">
         <v>5</v>
@@ -28492,8 +28492,8 @@
       <c r="V363">
         <v>2</v>
       </c>
-      <c r="W363" s="1">
-        <v>5</v>
+      <c r="W363">
+        <v>4</v>
       </c>
       <c r="X363">
         <v>5</v>
@@ -28569,8 +28569,8 @@
       <c r="V364">
         <v>4</v>
       </c>
-      <c r="W364" s="1">
-        <v>3</v>
+      <c r="W364">
+        <v>4</v>
       </c>
       <c r="X364">
         <v>5</v>
@@ -28605,7 +28605,7 @@
         <v>1</v>
       </c>
       <c r="I365">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J365">
         <v>5</v>
@@ -28646,8 +28646,8 @@
       <c r="V365">
         <v>3</v>
       </c>
-      <c r="W365" s="1">
-        <v>5</v>
+      <c r="W365">
+        <v>4</v>
       </c>
       <c r="X365">
         <v>6</v>
@@ -28682,7 +28682,7 @@
         <v>3</v>
       </c>
       <c r="I366">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J366">
         <v>6</v>
@@ -28724,7 +28724,7 @@
         <v>2</v>
       </c>
       <c r="W366">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X366">
         <v>5</v>
@@ -28801,7 +28801,7 @@
         <v>3</v>
       </c>
       <c r="W367">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X367">
         <v>6</v>
@@ -28836,7 +28836,7 @@
         <v>2</v>
       </c>
       <c r="I368">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J368">
         <v>5</v>
@@ -28878,7 +28878,7 @@
         <v>2</v>
       </c>
       <c r="W368">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X368">
         <v>6</v>
@@ -28913,7 +28913,7 @@
         <v>3</v>
       </c>
       <c r="I369">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J369">
         <v>4</v>
@@ -28955,7 +28955,7 @@
         <v>2</v>
       </c>
       <c r="W369">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X369">
         <v>6</v>
@@ -29032,7 +29032,7 @@
         <v>2</v>
       </c>
       <c r="W370">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X370">
         <v>4</v>
@@ -29067,7 +29067,7 @@
         <v>2</v>
       </c>
       <c r="I371">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J371">
         <v>3</v>
@@ -29109,7 +29109,7 @@
         <v>2</v>
       </c>
       <c r="W371">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X371">
         <v>5</v>
@@ -29186,7 +29186,7 @@
         <v>4</v>
       </c>
       <c r="W372">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X372">
         <v>6</v>
@@ -29298,7 +29298,7 @@
         <v>2</v>
       </c>
       <c r="I374">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J374">
         <v>3</v>
@@ -29340,7 +29340,7 @@
         <v>2</v>
       </c>
       <c r="W374">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X374">
         <v>5</v>
@@ -29375,7 +29375,7 @@
         <v>3</v>
       </c>
       <c r="I375">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J375">
         <v>4</v>
@@ -29417,7 +29417,7 @@
         <v>3</v>
       </c>
       <c r="W375">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X375">
         <v>6</v>
@@ -29452,7 +29452,7 @@
         <v>4</v>
       </c>
       <c r="I376">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J376">
         <v>3</v>
@@ -29494,7 +29494,7 @@
         <v>2</v>
       </c>
       <c r="W376">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X376">
         <v>5</v>
@@ -29529,7 +29529,7 @@
         <v>4</v>
       </c>
       <c r="I377">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J377">
         <v>6</v>
@@ -29648,7 +29648,7 @@
         <v>4</v>
       </c>
       <c r="W378">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="X378">
         <v>6</v>
@@ -29683,7 +29683,7 @@
         <v>3</v>
       </c>
       <c r="I379">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J379">
         <v>4</v>
@@ -29725,7 +29725,7 @@
         <v>2</v>
       </c>
       <c r="W379">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X379">
         <v>5</v>
@@ -29760,7 +29760,7 @@
         <v>2</v>
       </c>
       <c r="I380">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J380">
         <v>5</v>
@@ -29802,7 +29802,7 @@
         <v>3</v>
       </c>
       <c r="W380">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X380">
         <v>5</v>
@@ -29837,7 +29837,7 @@
         <v>1</v>
       </c>
       <c r="I381">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J381">
         <v>5</v>
@@ -29914,7 +29914,7 @@
         <v>2</v>
       </c>
       <c r="I382">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J382">
         <v>5</v>
@@ -29956,7 +29956,7 @@
         <v>3</v>
       </c>
       <c r="W382">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X382">
         <v>5</v>
@@ -30033,7 +30033,7 @@
         <v>2</v>
       </c>
       <c r="W383">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X383">
         <v>6</v>
@@ -30068,7 +30068,7 @@
         <v>3</v>
       </c>
       <c r="I384">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J384">
         <v>4</v>
@@ -30110,7 +30110,7 @@
         <v>3</v>
       </c>
       <c r="W384">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X384">
         <v>6</v>
@@ -30222,7 +30222,7 @@
         <v>3</v>
       </c>
       <c r="I386">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J386">
         <v>5</v>
@@ -30264,7 +30264,7 @@
         <v>2</v>
       </c>
       <c r="W386">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X386">
         <v>6</v>
@@ -30299,7 +30299,7 @@
         <v>2</v>
       </c>
       <c r="I387">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J387">
         <v>4</v>
@@ -30341,7 +30341,7 @@
         <v>2</v>
       </c>
       <c r="W387">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X387">
         <v>6</v>
@@ -30376,7 +30376,7 @@
         <v>3</v>
       </c>
       <c r="I388">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J388">
         <v>4</v>
@@ -30418,7 +30418,7 @@
         <v>3</v>
       </c>
       <c r="W388">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X388">
         <v>5</v>
@@ -30495,7 +30495,7 @@
         <v>3</v>
       </c>
       <c r="W389">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X389">
         <v>6</v>
@@ -30530,7 +30530,7 @@
         <v>3</v>
       </c>
       <c r="I390">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J390">
         <v>4</v>
@@ -30572,7 +30572,7 @@
         <v>2</v>
       </c>
       <c r="W390">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X390">
         <v>6</v>
@@ -30607,7 +30607,7 @@
         <v>3</v>
       </c>
       <c r="I391">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J391">
         <v>4</v>
@@ -30649,7 +30649,7 @@
         <v>2</v>
       </c>
       <c r="W391">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X391">
         <v>5</v>
@@ -30684,7 +30684,7 @@
         <v>1</v>
       </c>
       <c r="I392">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J392">
         <v>4</v>
@@ -30761,7 +30761,7 @@
         <v>3</v>
       </c>
       <c r="I393">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J393">
         <v>5</v>
@@ -30803,7 +30803,7 @@
         <v>2</v>
       </c>
       <c r="W393">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X393">
         <v>5</v>
@@ -30838,7 +30838,7 @@
         <v>2</v>
       </c>
       <c r="I394">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J394">
         <v>3</v>
@@ -30880,7 +30880,7 @@
         <v>3</v>
       </c>
       <c r="W394">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X394">
         <v>6</v>
@@ -30915,7 +30915,7 @@
         <v>2</v>
       </c>
       <c r="I395">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J395">
         <v>5</v>
@@ -31188,7 +31188,7 @@
         <v>2</v>
       </c>
       <c r="W398">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X398">
         <v>5</v>
@@ -31300,7 +31300,7 @@
         <v>3</v>
       </c>
       <c r="I400">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J400">
         <v>4</v>
@@ -31342,7 +31342,7 @@
         <v>3</v>
       </c>
       <c r="W400">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X400">
         <v>5</v>
@@ -31419,7 +31419,7 @@
         <v>2</v>
       </c>
       <c r="W401">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X401">
         <v>5</v>

--- a/QRQAC/csv_files/QRQAC_planning_depths.xlsx
+++ b/QRQAC/csv_files/QRQAC_planning_depths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arachne0/PycharmProjects/get_api/QRQAC/csv_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE15CE63-ACAE-DD41-BB76-A7ED9570F5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218B4637-61C0-4D42-91F6-26328C1E449B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="1880" windowWidth="27300" windowHeight="16380" xr2:uid="{8B7E887A-31AE-DC46-8943-84B1AB21CEFA}"/>
+    <workbookView xWindow="3640" yWindow="4020" windowWidth="27300" windowHeight="16380" xr2:uid="{8B7E887A-31AE-DC46-8943-84B1AB21CEFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8DCF46-89D0-A843-A4FF-5E0B1C784D1D}">
   <dimension ref="A1:Y401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F369" zoomScale="58" workbookViewId="0">
-      <selection activeCell="J386" sqref="J386"/>
+    <sheetView tabSelected="1" topLeftCell="S57" zoomScale="92" workbookViewId="0">
+      <selection activeCell="Y73" sqref="Y73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -927,7 +927,7 @@
         <v>3</v>
       </c>
       <c r="W5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X5">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="W6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X6">
         <v>4</v>
@@ -1081,7 +1081,7 @@
         <v>2</v>
       </c>
       <c r="W7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X7">
         <v>5</v>
@@ -1235,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="W9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X9">
         <v>5</v>
@@ -1312,7 +1312,7 @@
         <v>3</v>
       </c>
       <c r="W10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X10">
         <v>5</v>
@@ -1359,7 +1359,7 @@
         <v>3</v>
       </c>
       <c r="M11" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11">
         <v>5</v>
@@ -1436,7 +1436,7 @@
         <v>3</v>
       </c>
       <c r="M12" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N12">
         <v>4</v>
@@ -1466,7 +1466,7 @@
         <v>3</v>
       </c>
       <c r="W12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X12">
         <v>5</v>
@@ -1513,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="M13" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13">
         <v>4</v>
@@ -1540,10 +1540,10 @@
         <v>2</v>
       </c>
       <c r="V13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X13">
         <v>6</v>
@@ -1620,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="W14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X14">
         <v>6</v>
@@ -1667,7 +1667,7 @@
         <v>4</v>
       </c>
       <c r="M15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15">
         <v>5</v>
@@ -1694,10 +1694,10 @@
         <v>2</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X15">
         <v>5</v>
@@ -1744,7 +1744,7 @@
         <v>3</v>
       </c>
       <c r="M16" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16">
         <v>5</v>
@@ -1771,10 +1771,10 @@
         <v>2</v>
       </c>
       <c r="V16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X16">
         <v>6</v>
@@ -1821,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="M17" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N17">
         <v>7</v>
@@ -1848,10 +1848,10 @@
         <v>2</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X17">
         <v>6</v>
@@ -1898,7 +1898,7 @@
         <v>3</v>
       </c>
       <c r="M18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18">
         <v>6</v>
@@ -1925,10 +1925,10 @@
         <v>2</v>
       </c>
       <c r="V18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X18">
         <v>5</v>
@@ -1975,7 +1975,7 @@
         <v>4</v>
       </c>
       <c r="M19" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19">
         <v>5</v>
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="V19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>3</v>
@@ -2052,7 +2052,7 @@
         <v>3</v>
       </c>
       <c r="M20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20">
         <v>6</v>
@@ -2079,10 +2079,10 @@
         <v>2</v>
       </c>
       <c r="V20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X20">
         <v>6</v>
@@ -2129,7 +2129,7 @@
         <v>4</v>
       </c>
       <c r="M21" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>6</v>
@@ -2206,7 +2206,7 @@
         <v>3</v>
       </c>
       <c r="M22" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N22">
         <v>4</v>
@@ -2233,7 +2233,7 @@
         <v>2</v>
       </c>
       <c r="V22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W22">
         <v>4</v>
@@ -2283,7 +2283,7 @@
         <v>4</v>
       </c>
       <c r="M23" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>5</v>
@@ -2360,7 +2360,7 @@
         <v>3</v>
       </c>
       <c r="M24" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24">
         <v>4</v>
@@ -2387,10 +2387,10 @@
         <v>2</v>
       </c>
       <c r="V24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X24">
         <v>6</v>
@@ -2437,7 +2437,7 @@
         <v>4</v>
       </c>
       <c r="M25" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N25">
         <v>4</v>
@@ -2464,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="V25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W25">
         <v>2</v>
@@ -2514,7 +2514,7 @@
         <v>4</v>
       </c>
       <c r="M26" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N26">
         <v>4</v>
@@ -2541,10 +2541,10 @@
         <v>2</v>
       </c>
       <c r="V26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X26">
         <v>6</v>
@@ -2618,10 +2618,10 @@
         <v>1</v>
       </c>
       <c r="V27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X27">
         <v>6</v>
@@ -2698,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="W28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X28">
         <v>5</v>
@@ -2772,10 +2772,10 @@
         <v>1</v>
       </c>
       <c r="V29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X29">
         <v>5</v>
@@ -2849,10 +2849,10 @@
         <v>2</v>
       </c>
       <c r="V30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X30">
         <v>6</v>
@@ -2929,7 +2929,7 @@
         <v>4</v>
       </c>
       <c r="W31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X31">
         <v>5</v>
@@ -3006,7 +3006,7 @@
         <v>2</v>
       </c>
       <c r="W32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X32">
         <v>6</v>
@@ -3157,7 +3157,7 @@
         <v>2</v>
       </c>
       <c r="V34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W34">
         <v>4</v>
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W35">
         <v>3</v>
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W37">
         <v>5</v>
@@ -4851,10 +4851,10 @@
         <v>1</v>
       </c>
       <c r="V56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X56">
         <v>6</v>
@@ -4928,7 +4928,7 @@
         <v>2</v>
       </c>
       <c r="V57">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W57">
         <v>4</v>
@@ -5008,7 +5008,7 @@
         <v>3</v>
       </c>
       <c r="W58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X58">
         <v>6</v>
@@ -5082,10 +5082,10 @@
         <v>1</v>
       </c>
       <c r="V59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X59">
         <v>7</v>
@@ -5159,10 +5159,10 @@
         <v>1</v>
       </c>
       <c r="V60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X60">
         <v>6</v>
@@ -5236,7 +5236,7 @@
         <v>2</v>
       </c>
       <c r="V61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="W61">
         <v>3</v>
@@ -5313,7 +5313,7 @@
         <v>1</v>
       </c>
       <c r="V62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W62">
         <v>4</v>
@@ -5360,7 +5360,7 @@
         <v>4</v>
       </c>
       <c r="L63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M63" s="1">
         <v>5</v>
@@ -5390,7 +5390,7 @@
         <v>2</v>
       </c>
       <c r="V63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W63">
         <v>4</v>
@@ -5470,7 +5470,7 @@
         <v>3</v>
       </c>
       <c r="W64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X64">
         <v>6</v>
@@ -5514,7 +5514,7 @@
         <v>2</v>
       </c>
       <c r="L65">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M65" s="1">
         <v>4</v>
@@ -5544,10 +5544,10 @@
         <v>2</v>
       </c>
       <c r="V65">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X65">
         <v>7</v>
@@ -5591,7 +5591,7 @@
         <v>3</v>
       </c>
       <c r="L66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M66" s="1">
         <v>7</v>
@@ -5621,7 +5621,7 @@
         <v>2</v>
       </c>
       <c r="V66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W66">
         <v>3</v>
@@ -5745,7 +5745,7 @@
         <v>4</v>
       </c>
       <c r="L68">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M68" s="1">
         <v>4</v>
@@ -5775,10 +5775,10 @@
         <v>1</v>
       </c>
       <c r="V68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X68">
         <v>4</v>
@@ -5822,7 +5822,7 @@
         <v>4</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M69" s="1">
         <v>4</v>
@@ -5855,7 +5855,7 @@
         <v>3</v>
       </c>
       <c r="W69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X69">
         <v>4</v>
@@ -5899,7 +5899,7 @@
         <v>4</v>
       </c>
       <c r="L70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M70" s="1">
         <v>6</v>
@@ -5929,10 +5929,10 @@
         <v>1</v>
       </c>
       <c r="V70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X70">
         <v>5</v>
@@ -5976,7 +5976,7 @@
         <v>3</v>
       </c>
       <c r="L71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M71" s="1">
         <v>5</v>
@@ -6006,10 +6006,10 @@
         <v>1</v>
       </c>
       <c r="V71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X71">
         <v>4</v>
@@ -6083,10 +6083,10 @@
         <v>1</v>
       </c>
       <c r="V72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X72">
         <v>5</v>
@@ -6130,7 +6130,7 @@
         <v>3</v>
       </c>
       <c r="L73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M73" s="1">
         <v>6</v>
@@ -6163,7 +6163,7 @@
         <v>3</v>
       </c>
       <c r="W73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X73">
         <v>4</v>
@@ -6207,7 +6207,7 @@
         <v>3</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M74" s="1">
         <v>5</v>
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="V74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W74">
         <v>4</v>
@@ -6317,7 +6317,7 @@
         <v>2</v>
       </c>
       <c r="W75">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X75">
         <v>4</v>
@@ -6361,7 +6361,7 @@
         <v>4</v>
       </c>
       <c r="L76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M76" s="1">
         <v>6</v>
@@ -6391,7 +6391,7 @@
         <v>1</v>
       </c>
       <c r="V76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W76">
         <v>4</v>
@@ -6468,7 +6468,7 @@
         <v>1</v>
       </c>
       <c r="V77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W77">
         <v>2</v>
@@ -6515,7 +6515,7 @@
         <v>3</v>
       </c>
       <c r="L78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M78" s="1">
         <v>4</v>
@@ -6545,7 +6545,7 @@
         <v>1</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W78">
         <v>3</v>
@@ -6592,7 +6592,7 @@
         <v>4</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M79" s="1">
         <v>4</v>
@@ -6699,7 +6699,7 @@
         <v>1</v>
       </c>
       <c r="V80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W80">
         <v>4</v>
@@ -6853,10 +6853,10 @@
         <v>2</v>
       </c>
       <c r="V82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X82">
         <v>5</v>
@@ -6933,7 +6933,7 @@
         <v>2</v>
       </c>
       <c r="W83">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X83">
         <v>4</v>
@@ -7010,7 +7010,7 @@
         <v>3</v>
       </c>
       <c r="W84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X84">
         <v>5</v>
@@ -7054,7 +7054,7 @@
         <v>3</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M85" s="1">
         <v>4</v>
@@ -7131,7 +7131,7 @@
         <v>3</v>
       </c>
       <c r="L86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M86" s="1">
         <v>7</v>
@@ -7164,7 +7164,7 @@
         <v>4</v>
       </c>
       <c r="W86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X86">
         <v>5</v>
@@ -7208,7 +7208,7 @@
         <v>4</v>
       </c>
       <c r="L87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M87" s="1">
         <v>4</v>
@@ -7318,7 +7318,7 @@
         <v>2</v>
       </c>
       <c r="W88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X88">
         <v>6</v>
@@ -7549,7 +7549,7 @@
         <v>3</v>
       </c>
       <c r="W91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X91">
         <v>6</v>
@@ -7626,7 +7626,7 @@
         <v>3</v>
       </c>
       <c r="W92">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X92">
         <v>5</v>
@@ -7703,7 +7703,7 @@
         <v>3</v>
       </c>
       <c r="W93">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X93">
         <v>6</v>
@@ -7741,7 +7741,7 @@
         <v>4</v>
       </c>
       <c r="J94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K94">
         <v>5</v>
@@ -7750,7 +7750,7 @@
         <v>4</v>
       </c>
       <c r="M94" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N94">
         <v>7</v>
@@ -7780,7 +7780,7 @@
         <v>3</v>
       </c>
       <c r="W94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X94">
         <v>4</v>
@@ -7818,7 +7818,7 @@
         <v>4</v>
       </c>
       <c r="J95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K95">
         <v>4</v>
@@ -7827,7 +7827,7 @@
         <v>5</v>
       </c>
       <c r="M95" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N95">
         <v>8</v>
@@ -7857,7 +7857,7 @@
         <v>3</v>
       </c>
       <c r="W95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X95">
         <v>4</v>
@@ -7895,7 +7895,7 @@
         <v>2</v>
       </c>
       <c r="J96">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K96">
         <v>4</v>
@@ -7931,10 +7931,10 @@
         <v>1</v>
       </c>
       <c r="V96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W96">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X96">
         <v>5</v>
@@ -7972,7 +7972,7 @@
         <v>2</v>
       </c>
       <c r="J97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K97">
         <v>4</v>
@@ -7981,7 +7981,7 @@
         <v>3</v>
       </c>
       <c r="M97" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N97">
         <v>4</v>
@@ -8008,10 +8008,10 @@
         <v>2</v>
       </c>
       <c r="V97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X97">
         <v>4</v>
@@ -8058,7 +8058,7 @@
         <v>4</v>
       </c>
       <c r="M98" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N98">
         <v>5</v>
@@ -8085,10 +8085,10 @@
         <v>2</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X98">
         <v>4</v>
@@ -8126,7 +8126,7 @@
         <v>4</v>
       </c>
       <c r="J99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K99">
         <v>4</v>
@@ -8135,7 +8135,7 @@
         <v>5</v>
       </c>
       <c r="M99" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N99">
         <v>5</v>
@@ -8162,10 +8162,10 @@
         <v>2</v>
       </c>
       <c r="V99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X99">
         <v>6</v>
@@ -8203,7 +8203,7 @@
         <v>2</v>
       </c>
       <c r="J100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K100">
         <v>4</v>
@@ -8212,7 +8212,7 @@
         <v>3</v>
       </c>
       <c r="M100" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N100">
         <v>5</v>
@@ -8239,10 +8239,10 @@
         <v>1</v>
       </c>
       <c r="V100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X100">
         <v>5</v>
@@ -8289,7 +8289,7 @@
         <v>4</v>
       </c>
       <c r="M101" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N101">
         <v>5</v>
@@ -8316,7 +8316,7 @@
         <v>1</v>
       </c>
       <c r="V101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W101">
         <v>4</v>
@@ -8396,7 +8396,7 @@
         <v>3</v>
       </c>
       <c r="W102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X102">
         <v>4</v>
@@ -8434,7 +8434,7 @@
         <v>3</v>
       </c>
       <c r="J103">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K103">
         <v>3</v>
@@ -8443,7 +8443,7 @@
         <v>5</v>
       </c>
       <c r="M103" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N103">
         <v>4</v>
@@ -8473,7 +8473,7 @@
         <v>2</v>
       </c>
       <c r="W103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X103">
         <v>4</v>
@@ -8520,7 +8520,7 @@
         <v>4</v>
       </c>
       <c r="M104" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N104">
         <v>4</v>
@@ -8547,10 +8547,10 @@
         <v>2</v>
       </c>
       <c r="V104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W104">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X104">
         <v>6</v>
@@ -8585,10 +8585,10 @@
         <v>3</v>
       </c>
       <c r="I105">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J105">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K105">
         <v>4</v>
@@ -8597,7 +8597,7 @@
         <v>4</v>
       </c>
       <c r="M105" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N105">
         <v>4</v>
@@ -8624,13 +8624,13 @@
         <v>2</v>
       </c>
       <c r="V105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X105">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y105">
         <v>8</v>
@@ -8662,10 +8662,10 @@
         <v>3</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J106">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K106">
         <v>4</v>
@@ -8701,13 +8701,13 @@
         <v>1</v>
       </c>
       <c r="V106">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W106">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X106">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y106">
         <v>10</v>
@@ -8739,10 +8739,10 @@
         <v>2</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J107">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K107">
         <v>4</v>
@@ -8751,7 +8751,7 @@
         <v>4</v>
       </c>
       <c r="M107" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N107">
         <v>5</v>
@@ -8778,10 +8778,10 @@
         <v>2</v>
       </c>
       <c r="V107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W107">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X107">
         <v>6</v>
@@ -8816,10 +8816,10 @@
         <v>4</v>
       </c>
       <c r="I108">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K108">
         <v>4</v>
@@ -8828,7 +8828,7 @@
         <v>4</v>
       </c>
       <c r="M108" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N108">
         <v>4</v>
@@ -8855,13 +8855,13 @@
         <v>1</v>
       </c>
       <c r="V108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X108">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y108">
         <v>7</v>
@@ -8893,7 +8893,7 @@
         <v>3</v>
       </c>
       <c r="I109">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J109">
         <v>3</v>
@@ -8905,7 +8905,7 @@
         <v>4</v>
       </c>
       <c r="M109" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N109">
         <v>4</v>
@@ -8938,7 +8938,7 @@
         <v>4</v>
       </c>
       <c r="X109">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y109">
         <v>9</v>
@@ -8970,10 +8970,10 @@
         <v>2</v>
       </c>
       <c r="I110">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J110">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K110">
         <v>4</v>
@@ -9012,10 +9012,10 @@
         <v>2</v>
       </c>
       <c r="W110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X110">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y110">
         <v>8</v>
@@ -9047,7 +9047,7 @@
         <v>2</v>
       </c>
       <c r="I111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J111">
         <v>4</v>
@@ -9092,7 +9092,7 @@
         <v>4</v>
       </c>
       <c r="X111">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y111">
         <v>7</v>
@@ -9163,7 +9163,7 @@
         <v>2</v>
       </c>
       <c r="V112">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W112">
         <v>2</v>
@@ -9201,7 +9201,7 @@
         <v>1</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J113">
         <v>3</v>
@@ -9213,7 +9213,7 @@
         <v>3</v>
       </c>
       <c r="M113" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N113">
         <v>5</v>
@@ -9240,10 +9240,10 @@
         <v>2</v>
       </c>
       <c r="V113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X113">
         <v>6</v>
@@ -9278,7 +9278,7 @@
         <v>3</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J114">
         <v>4</v>
@@ -9287,7 +9287,7 @@
         <v>3</v>
       </c>
       <c r="L114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M114" s="1">
         <v>5</v>
@@ -9320,10 +9320,10 @@
         <v>2</v>
       </c>
       <c r="W114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X114">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y114">
         <v>9</v>
@@ -9367,7 +9367,7 @@
         <v>3</v>
       </c>
       <c r="M115" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N115">
         <v>5</v>
@@ -9441,7 +9441,7 @@
         <v>4</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M116" s="1">
         <v>5</v>
@@ -9474,10 +9474,10 @@
         <v>2</v>
       </c>
       <c r="W116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X116">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y116">
         <v>8</v>
@@ -9551,10 +9551,10 @@
         <v>2</v>
       </c>
       <c r="W117">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X117">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y117">
         <v>13</v>
@@ -9595,10 +9595,10 @@
         <v>4</v>
       </c>
       <c r="L118">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M118" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N118">
         <v>5</v>
@@ -9625,13 +9625,13 @@
         <v>2</v>
       </c>
       <c r="V118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X118">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Y118">
         <v>9</v>
@@ -9663,7 +9663,7 @@
         <v>2</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J119">
         <v>4</v>
@@ -9672,7 +9672,7 @@
         <v>3</v>
       </c>
       <c r="L119">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M119" s="1">
         <v>5</v>
@@ -9705,7 +9705,7 @@
         <v>2</v>
       </c>
       <c r="W119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X119">
         <v>4</v>
@@ -9749,7 +9749,7 @@
         <v>3</v>
       </c>
       <c r="L120">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M120" s="1">
         <v>5</v>
@@ -9782,7 +9782,7 @@
         <v>4</v>
       </c>
       <c r="W120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X120">
         <v>4</v>
@@ -9817,7 +9817,7 @@
         <v>2</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J121">
         <v>4</v>
@@ -9826,7 +9826,7 @@
         <v>4</v>
       </c>
       <c r="L121">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M121" s="1">
         <v>5</v>
@@ -9859,10 +9859,10 @@
         <v>2</v>
       </c>
       <c r="W121">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X121">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y121">
         <v>9</v>
@@ -9894,7 +9894,7 @@
         <v>1</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J122">
         <v>4</v>
@@ -9903,10 +9903,10 @@
         <v>5</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M122" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N122">
         <v>5</v>
@@ -9971,7 +9971,7 @@
         <v>2</v>
       </c>
       <c r="I123">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J123">
         <v>4</v>
@@ -9980,7 +9980,7 @@
         <v>3</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M123" s="1">
         <v>4</v>
@@ -10010,10 +10010,10 @@
         <v>2</v>
       </c>
       <c r="V123">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W123">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X123">
         <v>4</v>
@@ -10048,7 +10048,7 @@
         <v>2</v>
       </c>
       <c r="I124">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J124">
         <v>3</v>
@@ -10057,7 +10057,7 @@
         <v>4</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M124" s="1">
         <v>4</v>
@@ -10090,7 +10090,7 @@
         <v>2</v>
       </c>
       <c r="W124">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X124">
         <v>6</v>
@@ -10125,7 +10125,7 @@
         <v>2</v>
       </c>
       <c r="I125">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J125">
         <v>3</v>
@@ -10134,10 +10134,10 @@
         <v>4</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M125" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N125">
         <v>5</v>
@@ -10164,10 +10164,10 @@
         <v>2</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W125">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X125">
         <v>5</v>
@@ -10202,7 +10202,7 @@
         <v>2</v>
       </c>
       <c r="I126">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J126">
         <v>4</v>
@@ -10211,7 +10211,7 @@
         <v>3</v>
       </c>
       <c r="L126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M126" s="1">
         <v>5</v>
@@ -10241,10 +10241,10 @@
         <v>2</v>
       </c>
       <c r="V126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W126">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X126">
         <v>5</v>
@@ -10279,7 +10279,7 @@
         <v>3</v>
       </c>
       <c r="I127">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J127">
         <v>3</v>
@@ -10318,7 +10318,7 @@
         <v>2</v>
       </c>
       <c r="V127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W127">
         <v>4</v>
@@ -10356,7 +10356,7 @@
         <v>2</v>
       </c>
       <c r="I128">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J128">
         <v>3</v>
@@ -10365,7 +10365,7 @@
         <v>5</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M128" s="1">
         <v>5</v>
@@ -10395,10 +10395,10 @@
         <v>1</v>
       </c>
       <c r="V128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W128">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X128">
         <v>5</v>
@@ -10445,7 +10445,7 @@
         <v>4</v>
       </c>
       <c r="M129" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N129">
         <v>6</v>
@@ -10475,7 +10475,7 @@
         <v>3</v>
       </c>
       <c r="W129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X129">
         <v>6</v>
@@ -10510,7 +10510,7 @@
         <v>3</v>
       </c>
       <c r="I130">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J130">
         <v>3</v>
@@ -10519,7 +10519,7 @@
         <v>4</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M130" s="1">
         <v>5</v>
@@ -10549,10 +10549,10 @@
         <v>1</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X130">
         <v>6</v>
@@ -10587,7 +10587,7 @@
         <v>3</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J131">
         <v>4</v>
@@ -10596,10 +10596,10 @@
         <v>4</v>
       </c>
       <c r="L131">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M131" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N131">
         <v>6</v>
@@ -10626,10 +10626,10 @@
         <v>1</v>
       </c>
       <c r="V131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X131">
         <v>5</v>
@@ -10673,10 +10673,10 @@
         <v>4</v>
       </c>
       <c r="L132">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M132" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N132">
         <v>4</v>
@@ -10703,10 +10703,10 @@
         <v>1</v>
       </c>
       <c r="V132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W132">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X132">
         <v>6</v>
@@ -10741,7 +10741,7 @@
         <v>2</v>
       </c>
       <c r="I133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J133">
         <v>4</v>
@@ -10753,7 +10753,7 @@
         <v>4</v>
       </c>
       <c r="M133" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N133">
         <v>5</v>
@@ -10818,7 +10818,7 @@
         <v>3</v>
       </c>
       <c r="I134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J134">
         <v>4</v>
@@ -10830,7 +10830,7 @@
         <v>3</v>
       </c>
       <c r="M134" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N134">
         <v>4</v>
@@ -10860,7 +10860,7 @@
         <v>2</v>
       </c>
       <c r="W134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X134">
         <v>5</v>
@@ -10937,7 +10937,7 @@
         <v>2</v>
       </c>
       <c r="W135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X135">
         <v>6</v>
@@ -10972,7 +10972,7 @@
         <v>2</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -10981,7 +10981,7 @@
         <v>3</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M136" s="1">
         <v>5</v>
@@ -11049,7 +11049,7 @@
         <v>2</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J137">
         <v>4</v>
@@ -11061,7 +11061,7 @@
         <v>4</v>
       </c>
       <c r="M137" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N137">
         <v>6</v>
@@ -11126,7 +11126,7 @@
         <v>3</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J138">
         <v>3</v>
@@ -11138,7 +11138,7 @@
         <v>4</v>
       </c>
       <c r="M138" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N138">
         <v>5</v>
@@ -11168,7 +11168,7 @@
         <v>2</v>
       </c>
       <c r="W138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X138">
         <v>5</v>
@@ -11203,10 +11203,10 @@
         <v>2</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J139">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K139">
         <v>4</v>
@@ -11245,7 +11245,7 @@
         <v>2</v>
       </c>
       <c r="W139">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X139">
         <v>5</v>
@@ -11280,10 +11280,10 @@
         <v>2</v>
       </c>
       <c r="I140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J140">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K140">
         <v>3</v>
@@ -11322,7 +11322,7 @@
         <v>2</v>
       </c>
       <c r="W140">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X140">
         <v>6</v>
@@ -11357,10 +11357,10 @@
         <v>2</v>
       </c>
       <c r="I141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J141">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K141">
         <v>4</v>
@@ -11399,7 +11399,7 @@
         <v>3</v>
       </c>
       <c r="W141">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X141">
         <v>4</v>
@@ -11476,7 +11476,7 @@
         <v>2</v>
       </c>
       <c r="W142">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X142">
         <v>5</v>
@@ -11511,10 +11511,10 @@
         <v>3</v>
       </c>
       <c r="I143">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K143">
         <v>4</v>
@@ -11553,7 +11553,7 @@
         <v>3</v>
       </c>
       <c r="W143">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X143">
         <v>5</v>
@@ -11588,10 +11588,10 @@
         <v>3</v>
       </c>
       <c r="I144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J144">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K144">
         <v>3</v>
@@ -11630,7 +11630,7 @@
         <v>3</v>
       </c>
       <c r="W144">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X144">
         <v>5</v>
@@ -11745,7 +11745,7 @@
         <v>5</v>
       </c>
       <c r="J146">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K146">
         <v>3</v>
@@ -11784,7 +11784,7 @@
         <v>2</v>
       </c>
       <c r="W146">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X146">
         <v>5</v>
@@ -11822,7 +11822,7 @@
         <v>3</v>
       </c>
       <c r="J147">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K147">
         <v>3</v>
@@ -11899,13 +11899,13 @@
         <v>4</v>
       </c>
       <c r="J148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K148">
         <v>3</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M148" s="1">
         <v>5</v>
@@ -11938,7 +11938,7 @@
         <v>2</v>
       </c>
       <c r="W148">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X148">
         <v>6</v>
@@ -11976,13 +11976,13 @@
         <v>3</v>
       </c>
       <c r="J149">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K149">
         <v>3</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M149" s="1">
         <v>7</v>
@@ -12053,13 +12053,13 @@
         <v>3</v>
       </c>
       <c r="J150">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K150">
         <v>5</v>
       </c>
       <c r="L150">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M150" s="1">
         <v>5</v>
@@ -12130,13 +12130,13 @@
         <v>4</v>
       </c>
       <c r="J151">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K151">
         <v>4</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M151" s="1">
         <v>5</v>
@@ -12207,13 +12207,13 @@
         <v>4</v>
       </c>
       <c r="J152">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K152">
         <v>3</v>
       </c>
       <c r="L152">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M152" s="1">
         <v>6</v>
@@ -12290,7 +12290,7 @@
         <v>3</v>
       </c>
       <c r="L153">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M153" s="1">
         <v>5</v>
@@ -12361,13 +12361,13 @@
         <v>4</v>
       </c>
       <c r="J154">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K154">
         <v>3</v>
       </c>
       <c r="L154">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M154" s="1">
         <v>5</v>
@@ -12438,13 +12438,13 @@
         <v>2</v>
       </c>
       <c r="J155">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K155">
         <v>4</v>
       </c>
       <c r="L155">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M155" s="1">
         <v>5</v>
@@ -12512,7 +12512,7 @@
         <v>4</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J156">
         <v>4</v>
@@ -12521,10 +12521,10 @@
         <v>5</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M156" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N156">
         <v>5</v>
@@ -12589,7 +12589,7 @@
         <v>3</v>
       </c>
       <c r="I157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J157">
         <v>4</v>
@@ -12598,10 +12598,10 @@
         <v>4</v>
       </c>
       <c r="L157">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M157" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N157">
         <v>6</v>
@@ -12666,19 +12666,19 @@
         <v>1</v>
       </c>
       <c r="I158">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J158">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K158">
         <v>3</v>
       </c>
       <c r="L158">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M158" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N158">
         <v>6</v>
@@ -12743,10 +12743,10 @@
         <v>3</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J159">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K159">
         <v>4</v>
@@ -12755,7 +12755,7 @@
         <v>4</v>
       </c>
       <c r="M159" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N159">
         <v>6</v>
@@ -12820,7 +12820,7 @@
         <v>4</v>
       </c>
       <c r="I160">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J160">
         <v>4</v>
@@ -12829,10 +12829,10 @@
         <v>4</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M160" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N160">
         <v>6</v>
@@ -12897,19 +12897,19 @@
         <v>1</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J161">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K161">
         <v>2</v>
       </c>
       <c r="L161">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M161" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N161">
         <v>5</v>
@@ -12977,13 +12977,13 @@
         <v>3</v>
       </c>
       <c r="J162">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K162">
         <v>3</v>
       </c>
       <c r="L162">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M162" s="1">
         <v>5</v>
@@ -13051,19 +13051,19 @@
         <v>3</v>
       </c>
       <c r="I163">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J163">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K163">
         <v>4</v>
       </c>
       <c r="L163">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M163" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N163">
         <v>6</v>
@@ -13131,16 +13131,16 @@
         <v>3</v>
       </c>
       <c r="J164">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K164">
         <v>4</v>
       </c>
       <c r="L164">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M164" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N164">
         <v>6</v>
@@ -13208,16 +13208,16 @@
         <v>4</v>
       </c>
       <c r="J165">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K165">
         <v>4</v>
       </c>
       <c r="L165">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M165" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N165">
         <v>6</v>
@@ -13291,10 +13291,10 @@
         <v>4</v>
       </c>
       <c r="L166">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M166" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N166">
         <v>7</v>
@@ -13368,10 +13368,10 @@
         <v>3</v>
       </c>
       <c r="L167">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M167" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N167">
         <v>4</v>
@@ -13445,7 +13445,7 @@
         <v>4</v>
       </c>
       <c r="L168">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M168" s="1">
         <v>5</v>
@@ -13522,7 +13522,7 @@
         <v>3</v>
       </c>
       <c r="L169">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M169" s="1">
         <v>5</v>
@@ -13599,7 +13599,7 @@
         <v>3</v>
       </c>
       <c r="L170">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M170" s="1">
         <v>5</v>
@@ -13753,7 +13753,7 @@
         <v>5</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M172" s="1">
         <v>5</v>
@@ -13830,7 +13830,7 @@
         <v>3</v>
       </c>
       <c r="L173">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M173" s="1">
         <v>5</v>
@@ -13907,10 +13907,10 @@
         <v>3</v>
       </c>
       <c r="L174">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M174" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N174">
         <v>4</v>
@@ -13984,10 +13984,10 @@
         <v>3</v>
       </c>
       <c r="L175">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M175" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N175">
         <v>5</v>
@@ -14064,7 +14064,7 @@
         <v>4</v>
       </c>
       <c r="M176" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N176">
         <v>5</v>
@@ -14138,10 +14138,10 @@
         <v>4</v>
       </c>
       <c r="L177">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M177" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N177">
         <v>5</v>
@@ -14218,7 +14218,7 @@
         <v>4</v>
       </c>
       <c r="M178" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N178">
         <v>5</v>
@@ -14372,7 +14372,7 @@
         <v>4</v>
       </c>
       <c r="M180" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N180">
         <v>6</v>
@@ -16709,7 +16709,7 @@
         <v>1</v>
       </c>
       <c r="V210">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W210">
         <v>2</v>
@@ -16789,7 +16789,7 @@
         <v>2</v>
       </c>
       <c r="W211">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X211" s="1">
         <v>4</v>
@@ -16863,7 +16863,7 @@
         <v>1</v>
       </c>
       <c r="V212">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W212">
         <v>4</v>
@@ -16943,7 +16943,7 @@
         <v>2</v>
       </c>
       <c r="W213">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X213" s="1">
         <v>4</v>
@@ -17020,7 +17020,7 @@
         <v>2</v>
       </c>
       <c r="W214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X214" s="1">
         <v>3</v>
@@ -17094,7 +17094,7 @@
         <v>2</v>
       </c>
       <c r="V215">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W215">
         <v>2</v>
@@ -17171,10 +17171,10 @@
         <v>2</v>
       </c>
       <c r="V216">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W216">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X216" s="1">
         <v>5</v>
@@ -17251,7 +17251,7 @@
         <v>2</v>
       </c>
       <c r="W217">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="X217" s="1">
         <v>5</v>
@@ -17328,7 +17328,7 @@
         <v>2</v>
       </c>
       <c r="W218">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X218" s="1">
         <v>3</v>
@@ -17402,7 +17402,7 @@
         <v>2</v>
       </c>
       <c r="V219">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W219">
         <v>4</v>
@@ -17636,7 +17636,7 @@
         <v>2</v>
       </c>
       <c r="W222">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X222">
         <v>5</v>
@@ -17713,7 +17713,7 @@
         <v>2</v>
       </c>
       <c r="W223">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X223">
         <v>6</v>
@@ -17864,10 +17864,10 @@
         <v>2</v>
       </c>
       <c r="V225">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W225">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X225">
         <v>5</v>
@@ -17944,7 +17944,7 @@
         <v>4</v>
       </c>
       <c r="W226">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X226">
         <v>8</v>
@@ -18021,7 +18021,7 @@
         <v>3</v>
       </c>
       <c r="W227">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X227">
         <v>5</v>
@@ -18098,7 +18098,7 @@
         <v>4</v>
       </c>
       <c r="W228">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X228">
         <v>6</v>
@@ -18791,7 +18791,7 @@
         <v>2</v>
       </c>
       <c r="W237">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X237">
         <v>6</v>
@@ -18868,7 +18868,7 @@
         <v>2</v>
       </c>
       <c r="W238">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X238">
         <v>6</v>
@@ -18945,7 +18945,7 @@
         <v>2</v>
       </c>
       <c r="W239">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X239">
         <v>6</v>
@@ -19099,7 +19099,7 @@
         <v>2</v>
       </c>
       <c r="W241">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X241">
         <v>8</v>
@@ -19176,7 +19176,7 @@
         <v>3</v>
       </c>
       <c r="W242">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X242">
         <v>5</v>
@@ -19330,7 +19330,7 @@
         <v>2</v>
       </c>
       <c r="W244">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X244">
         <v>5</v>
@@ -19561,7 +19561,7 @@
         <v>2</v>
       </c>
       <c r="W247">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="X247">
         <v>5</v>
@@ -19638,7 +19638,7 @@
         <v>2</v>
       </c>
       <c r="W248">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X248">
         <v>6</v>
@@ -19715,7 +19715,7 @@
         <v>2</v>
       </c>
       <c r="W249">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X249">
         <v>5</v>
@@ -19869,7 +19869,7 @@
         <v>2</v>
       </c>
       <c r="W251">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X251">
         <v>5</v>
@@ -19946,7 +19946,7 @@
         <v>2</v>
       </c>
       <c r="W252">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X252">
         <v>4</v>
@@ -20023,7 +20023,7 @@
         <v>2</v>
       </c>
       <c r="W253">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X253">
         <v>5</v>
@@ -20100,7 +20100,7 @@
         <v>3</v>
       </c>
       <c r="W254">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X254">
         <v>6</v>
@@ -20254,7 +20254,7 @@
         <v>2</v>
       </c>
       <c r="W256">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X256">
         <v>5</v>
@@ -20331,7 +20331,7 @@
         <v>3</v>
       </c>
       <c r="W257">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X257">
         <v>6</v>
@@ -20408,7 +20408,7 @@
         <v>3</v>
       </c>
       <c r="W258">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X258">
         <v>5</v>
@@ -20559,7 +20559,7 @@
         <v>1</v>
       </c>
       <c r="V260">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W260">
         <v>4</v>
@@ -20639,7 +20639,7 @@
         <v>3</v>
       </c>
       <c r="W261">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X261">
         <v>5</v>
@@ -20716,7 +20716,7 @@
         <v>2</v>
       </c>
       <c r="W262">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X262">
         <v>6</v>
@@ -20790,10 +20790,10 @@
         <v>2</v>
       </c>
       <c r="V263">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W263">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X263">
         <v>5</v>
@@ -20864,13 +20864,13 @@
         <v>9</v>
       </c>
       <c r="U264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V264">
         <v>2</v>
       </c>
       <c r="W264">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X264">
         <v>6</v>
@@ -20947,7 +20947,7 @@
         <v>2</v>
       </c>
       <c r="W265">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X265">
         <v>6</v>
@@ -21021,10 +21021,10 @@
         <v>1</v>
       </c>
       <c r="V266">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W266">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X266">
         <v>7</v>
@@ -21098,7 +21098,7 @@
         <v>2</v>
       </c>
       <c r="V267">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W267">
         <v>4</v>
@@ -21255,7 +21255,7 @@
         <v>3</v>
       </c>
       <c r="W269">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X269">
         <v>5</v>
@@ -21329,10 +21329,10 @@
         <v>1</v>
       </c>
       <c r="V270">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W270">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X270">
         <v>6</v>
@@ -21409,7 +21409,7 @@
         <v>3</v>
       </c>
       <c r="W271">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X271">
         <v>6</v>
@@ -21456,7 +21456,7 @@
         <v>5</v>
       </c>
       <c r="M272" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N272">
         <v>6</v>
@@ -21483,7 +21483,7 @@
         <v>1</v>
       </c>
       <c r="V272">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W272">
         <v>2</v>
@@ -21533,7 +21533,7 @@
         <v>4</v>
       </c>
       <c r="M273" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N273">
         <v>5</v>
@@ -21610,7 +21610,7 @@
         <v>5</v>
       </c>
       <c r="M274" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N274">
         <v>6</v>
@@ -21640,7 +21640,7 @@
         <v>3</v>
       </c>
       <c r="W274">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X274">
         <v>6</v>
@@ -21687,7 +21687,7 @@
         <v>5</v>
       </c>
       <c r="M275" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N275">
         <v>5</v>
@@ -21714,7 +21714,7 @@
         <v>1</v>
       </c>
       <c r="V275">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W275">
         <v>3</v>
@@ -21791,7 +21791,7 @@
         <v>2</v>
       </c>
       <c r="V276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W276">
         <v>4</v>
@@ -21841,7 +21841,7 @@
         <v>6</v>
       </c>
       <c r="M277" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N277">
         <v>5</v>
@@ -21918,7 +21918,7 @@
         <v>5</v>
       </c>
       <c r="M278" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N278">
         <v>4</v>
@@ -22025,7 +22025,7 @@
         <v>2</v>
       </c>
       <c r="W279">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X279">
         <v>6</v>
@@ -22149,7 +22149,7 @@
         <v>5</v>
       </c>
       <c r="M281" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N281">
         <v>6</v>
@@ -22226,7 +22226,7 @@
         <v>3</v>
       </c>
       <c r="M282" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N282">
         <v>6</v>
@@ -22303,7 +22303,7 @@
         <v>4</v>
       </c>
       <c r="M283" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="N283">
         <v>5</v>
@@ -22380,7 +22380,7 @@
         <v>6</v>
       </c>
       <c r="M284" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N284">
         <v>5</v>
@@ -22457,7 +22457,7 @@
         <v>5</v>
       </c>
       <c r="M285" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N285">
         <v>5</v>
@@ -22481,7 +22481,7 @@
         <v>10</v>
       </c>
       <c r="U285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V285">
         <v>2</v>
@@ -22564,7 +22564,7 @@
         <v>2</v>
       </c>
       <c r="W286">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X286" s="1">
         <v>4</v>
@@ -22611,7 +22611,7 @@
         <v>6</v>
       </c>
       <c r="M287" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N287">
         <v>4</v>
@@ -22635,13 +22635,13 @@
         <v>8</v>
       </c>
       <c r="U287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V287">
         <v>3</v>
       </c>
       <c r="W287">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X287" s="1">
         <v>5</v>
@@ -22688,7 +22688,7 @@
         <v>3</v>
       </c>
       <c r="M288" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N288">
         <v>4</v>
@@ -22718,7 +22718,7 @@
         <v>2</v>
       </c>
       <c r="W288">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X288" s="1">
         <v>4</v>
@@ -22795,7 +22795,7 @@
         <v>3</v>
       </c>
       <c r="W289">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X289" s="1">
         <v>5</v>
@@ -22872,7 +22872,7 @@
         <v>2</v>
       </c>
       <c r="W290">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X290" s="1">
         <v>4</v>
@@ -22996,7 +22996,7 @@
         <v>5</v>
       </c>
       <c r="M292" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N292">
         <v>5</v>
@@ -23073,7 +23073,7 @@
         <v>5</v>
       </c>
       <c r="M293" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N293">
         <v>4</v>
@@ -23150,7 +23150,7 @@
         <v>6</v>
       </c>
       <c r="M294" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N294">
         <v>4</v>
@@ -23227,7 +23227,7 @@
         <v>6</v>
       </c>
       <c r="M295" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N295">
         <v>5</v>
@@ -23304,7 +23304,7 @@
         <v>5</v>
       </c>
       <c r="M296" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N296">
         <v>5</v>
@@ -23381,7 +23381,7 @@
         <v>4</v>
       </c>
       <c r="M297" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N297">
         <v>5</v>
@@ -23535,7 +23535,7 @@
         <v>5</v>
       </c>
       <c r="M299" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N299">
         <v>5</v>
@@ -26028,8 +26028,8 @@
       <c r="V331">
         <v>2</v>
       </c>
-      <c r="W331">
-        <v>4</v>
+      <c r="W331" s="1">
+        <v>3</v>
       </c>
       <c r="X331">
         <v>5</v>
@@ -26105,8 +26105,8 @@
       <c r="V332">
         <v>3</v>
       </c>
-      <c r="W332">
-        <v>4</v>
+      <c r="W332" s="1">
+        <v>3</v>
       </c>
       <c r="X332">
         <v>5</v>
@@ -26180,10 +26180,10 @@
         <v>1</v>
       </c>
       <c r="V333">
-        <v>5</v>
-      </c>
-      <c r="W333">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="W333" s="1">
+        <v>2</v>
       </c>
       <c r="X333">
         <v>6</v>
@@ -26259,8 +26259,8 @@
       <c r="V334">
         <v>2</v>
       </c>
-      <c r="W334">
-        <v>2</v>
+      <c r="W334" s="1">
+        <v>4</v>
       </c>
       <c r="X334">
         <v>5</v>
@@ -26336,8 +26336,8 @@
       <c r="V335">
         <v>2</v>
       </c>
-      <c r="W335">
-        <v>5</v>
+      <c r="W335" s="1">
+        <v>4</v>
       </c>
       <c r="X335">
         <v>5</v>
@@ -26411,10 +26411,10 @@
         <v>2</v>
       </c>
       <c r="V336">
-        <v>5</v>
-      </c>
-      <c r="W336">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="W336" s="1">
+        <v>4</v>
       </c>
       <c r="X336">
         <v>5</v>
@@ -26490,8 +26490,8 @@
       <c r="V337">
         <v>2</v>
       </c>
-      <c r="W337">
-        <v>4</v>
+      <c r="W337" s="1">
+        <v>5</v>
       </c>
       <c r="X337">
         <v>5</v>
@@ -27183,8 +27183,8 @@
       <c r="V346">
         <v>2</v>
       </c>
-      <c r="W346">
-        <v>2</v>
+      <c r="W346" s="1">
+        <v>3</v>
       </c>
       <c r="X346">
         <v>6</v>
@@ -27260,8 +27260,8 @@
       <c r="V347">
         <v>2</v>
       </c>
-      <c r="W347">
-        <v>2</v>
+      <c r="W347" s="1">
+        <v>3</v>
       </c>
       <c r="X347">
         <v>6</v>
@@ -27337,8 +27337,8 @@
       <c r="V348">
         <v>3</v>
       </c>
-      <c r="W348">
-        <v>3</v>
+      <c r="W348" s="1">
+        <v>2</v>
       </c>
       <c r="X348">
         <v>5</v>
@@ -27414,7 +27414,7 @@
       <c r="V349">
         <v>2</v>
       </c>
-      <c r="W349">
+      <c r="W349" s="1">
         <v>4</v>
       </c>
       <c r="X349">
@@ -27462,7 +27462,7 @@
         <v>5</v>
       </c>
       <c r="M350" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N350">
         <v>5</v>
@@ -27491,8 +27491,8 @@
       <c r="V350">
         <v>2</v>
       </c>
-      <c r="W350">
-        <v>2</v>
+      <c r="W350" s="1">
+        <v>4</v>
       </c>
       <c r="X350">
         <v>6</v>
@@ -27539,7 +27539,7 @@
         <v>5</v>
       </c>
       <c r="M351" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N351">
         <v>5</v>
@@ -27568,7 +27568,7 @@
       <c r="V351">
         <v>4</v>
       </c>
-      <c r="W351">
+      <c r="W351" s="1">
         <v>4</v>
       </c>
       <c r="X351">
@@ -27616,7 +27616,7 @@
         <v>4</v>
       </c>
       <c r="M352" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N352">
         <v>7</v>
@@ -27645,8 +27645,8 @@
       <c r="V352">
         <v>3</v>
       </c>
-      <c r="W352">
-        <v>2</v>
+      <c r="W352" s="1">
+        <v>5</v>
       </c>
       <c r="X352">
         <v>6</v>
@@ -27693,7 +27693,7 @@
         <v>5</v>
       </c>
       <c r="M353" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N353">
         <v>5</v>
@@ -27770,7 +27770,7 @@
         <v>3</v>
       </c>
       <c r="M354" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N354">
         <v>3</v>
@@ -27847,7 +27847,7 @@
         <v>4</v>
       </c>
       <c r="M355" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N355">
         <v>5</v>
@@ -28155,7 +28155,7 @@
         <v>5</v>
       </c>
       <c r="M359" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N359">
         <v>5</v>
@@ -28232,7 +28232,7 @@
         <v>4</v>
       </c>
       <c r="M360" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N360">
         <v>7</v>
@@ -28309,7 +28309,7 @@
         <v>4</v>
       </c>
       <c r="M361" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N361">
         <v>5</v>
@@ -28386,7 +28386,7 @@
         <v>4</v>
       </c>
       <c r="M362" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N362">
         <v>7</v>
@@ -28463,7 +28463,7 @@
         <v>4</v>
       </c>
       <c r="M363" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N363">
         <v>4</v>
@@ -28540,7 +28540,7 @@
         <v>5</v>
       </c>
       <c r="M364" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N364">
         <v>4</v>
@@ -28641,7 +28641,7 @@
         <v>10</v>
       </c>
       <c r="U365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V365">
         <v>3</v>
@@ -28771,7 +28771,7 @@
         <v>4</v>
       </c>
       <c r="M367" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N367">
         <v>5</v>
@@ -28877,8 +28877,8 @@
       <c r="V368">
         <v>2</v>
       </c>
-      <c r="W368">
-        <v>4</v>
+      <c r="W368" s="1">
+        <v>3</v>
       </c>
       <c r="X368">
         <v>6</v>
@@ -28925,7 +28925,7 @@
         <v>4</v>
       </c>
       <c r="M369" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N369">
         <v>4</v>
@@ -28954,7 +28954,7 @@
       <c r="V369">
         <v>2</v>
       </c>
-      <c r="W369">
+      <c r="W369" s="1">
         <v>3</v>
       </c>
       <c r="X369">
@@ -29002,7 +29002,7 @@
         <v>4</v>
       </c>
       <c r="M370" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N370">
         <v>4</v>
@@ -29031,8 +29031,8 @@
       <c r="V370">
         <v>2</v>
       </c>
-      <c r="W370">
-        <v>4</v>
+      <c r="W370" s="1">
+        <v>2</v>
       </c>
       <c r="X370">
         <v>4</v>
@@ -29079,7 +29079,7 @@
         <v>3</v>
       </c>
       <c r="M371" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N371">
         <v>5</v>
@@ -29108,8 +29108,8 @@
       <c r="V371">
         <v>2</v>
       </c>
-      <c r="W371">
-        <v>3</v>
+      <c r="W371" s="1">
+        <v>4</v>
       </c>
       <c r="X371">
         <v>5</v>
@@ -29156,7 +29156,7 @@
         <v>3</v>
       </c>
       <c r="M372" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N372">
         <v>6</v>
@@ -29185,8 +29185,8 @@
       <c r="V372">
         <v>4</v>
       </c>
-      <c r="W372">
-        <v>5</v>
+      <c r="W372" s="1">
+        <v>4</v>
       </c>
       <c r="X372">
         <v>6</v>
@@ -29233,7 +29233,7 @@
         <v>4</v>
       </c>
       <c r="M373" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N373">
         <v>4</v>
@@ -29262,8 +29262,8 @@
       <c r="V373">
         <v>2</v>
       </c>
-      <c r="W373">
-        <v>5</v>
+      <c r="W373" s="1">
+        <v>4</v>
       </c>
       <c r="X373">
         <v>5</v>
@@ -29310,7 +29310,7 @@
         <v>3</v>
       </c>
       <c r="M374" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N374">
         <v>4</v>
@@ -29339,8 +29339,8 @@
       <c r="V374">
         <v>2</v>
       </c>
-      <c r="W374">
-        <v>4</v>
+      <c r="W374" s="1">
+        <v>5</v>
       </c>
       <c r="X374">
         <v>5</v>
@@ -29541,7 +29541,7 @@
         <v>2</v>
       </c>
       <c r="M377" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N377">
         <v>6</v>
@@ -29571,7 +29571,7 @@
         <v>3</v>
       </c>
       <c r="W377">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X377">
         <v>6</v>
@@ -29618,7 +29618,7 @@
         <v>3</v>
       </c>
       <c r="M378" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N378">
         <v>5</v>
@@ -29642,10 +29642,10 @@
         <v>10</v>
       </c>
       <c r="U378">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V378">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W378">
         <v>2</v>
@@ -29719,7 +29719,7 @@
         <v>9</v>
       </c>
       <c r="U379">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V379">
         <v>2</v>
@@ -29772,7 +29772,7 @@
         <v>3</v>
       </c>
       <c r="M380" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N380">
         <v>4</v>
@@ -29849,7 +29849,7 @@
         <v>3</v>
       </c>
       <c r="M381" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N381">
         <v>6</v>
@@ -29879,7 +29879,7 @@
         <v>3</v>
       </c>
       <c r="W381">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X381">
         <v>6</v>
@@ -29926,7 +29926,7 @@
         <v>3</v>
       </c>
       <c r="M382" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N382">
         <v>4</v>
@@ -30003,7 +30003,7 @@
         <v>3</v>
       </c>
       <c r="M383" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N383">
         <v>6</v>
@@ -30080,7 +30080,7 @@
         <v>3</v>
       </c>
       <c r="M384" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N384">
         <v>3</v>
@@ -30157,7 +30157,7 @@
         <v>3</v>
       </c>
       <c r="M385" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N385">
         <v>6</v>
@@ -30187,7 +30187,7 @@
         <v>2</v>
       </c>
       <c r="W385">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X385">
         <v>5</v>
@@ -30234,7 +30234,7 @@
         <v>4</v>
       </c>
       <c r="M386" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N386">
         <v>5</v>
@@ -30311,7 +30311,7 @@
         <v>4</v>
       </c>
       <c r="M387" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N387">
         <v>5</v>
@@ -30341,7 +30341,7 @@
         <v>2</v>
       </c>
       <c r="W387">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X387">
         <v>6</v>
@@ -30388,7 +30388,7 @@
         <v>4</v>
       </c>
       <c r="M388" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N388">
         <v>4</v>
@@ -30418,7 +30418,7 @@
         <v>3</v>
       </c>
       <c r="W388">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X388">
         <v>5</v>
@@ -30465,7 +30465,7 @@
         <v>4</v>
       </c>
       <c r="M389" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N389">
         <v>5</v>
@@ -30495,7 +30495,7 @@
         <v>3</v>
       </c>
       <c r="W389">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X389">
         <v>6</v>
@@ -30649,7 +30649,7 @@
         <v>2</v>
       </c>
       <c r="W391">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X391">
         <v>5</v>
@@ -30696,7 +30696,7 @@
         <v>4</v>
       </c>
       <c r="M392" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N392">
         <v>6</v>
@@ -30726,7 +30726,7 @@
         <v>2</v>
       </c>
       <c r="W392">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X392">
         <v>5</v>
@@ -30773,7 +30773,7 @@
         <v>4</v>
       </c>
       <c r="M393" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N393">
         <v>4</v>
@@ -30803,7 +30803,7 @@
         <v>2</v>
       </c>
       <c r="W393">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X393">
         <v>5</v>
@@ -30927,7 +30927,7 @@
         <v>3</v>
       </c>
       <c r="M395" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N395">
         <v>4</v>
@@ -30951,13 +30951,13 @@
         <v>7</v>
       </c>
       <c r="U395">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V395">
         <v>2</v>
       </c>
       <c r="W395">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X395">
         <v>7</v>
@@ -31004,7 +31004,7 @@
         <v>3</v>
       </c>
       <c r="M396" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N396">
         <v>4</v>
@@ -31081,7 +31081,7 @@
         <v>4</v>
       </c>
       <c r="M397" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N397">
         <v>4</v>
@@ -31111,7 +31111,7 @@
         <v>2</v>
       </c>
       <c r="W397">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X397">
         <v>5</v>
@@ -31185,10 +31185,10 @@
         <v>2</v>
       </c>
       <c r="V398">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W398">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X398">
         <v>5</v>
@@ -31235,7 +31235,7 @@
         <v>5</v>
       </c>
       <c r="M399" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N399">
         <v>4</v>
@@ -31265,7 +31265,7 @@
         <v>2</v>
       </c>
       <c r="W399">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X399">
         <v>5</v>
@@ -31312,7 +31312,7 @@
         <v>3</v>
       </c>
       <c r="M400" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N400">
         <v>4</v>
@@ -31342,7 +31342,7 @@
         <v>3</v>
       </c>
       <c r="W400">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X400">
         <v>5</v>
@@ -31389,7 +31389,7 @@
         <v>3</v>
       </c>
       <c r="M401" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N401">
         <v>5</v>
@@ -31419,7 +31419,7 @@
         <v>2</v>
       </c>
       <c r="W401">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X401">
         <v>5</v>
